--- a/INTLINE/data/134/DEUSTATIS/National accounts - national disposable income quarters.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/National accounts - national disposable income quarters.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="59">
   <si>
     <t>National accounts - GDP, gross national income, national
 disposable income, net lending/net borrowing of the national
@@ -124,6 +124,9 @@
     <t>2021</t>
   </si>
   <si>
+    <t>2022</t>
+  </si>
+  <si>
     <t>Quarter 1</t>
   </si>
   <si>
@@ -143,6 +146,9 @@
   </si>
   <si>
     <t>EUR bn</t>
+  </si>
+  <si>
+    <t>...</t>
   </si>
   <si>
     <t xml:space="preserve"> + Primary income from the rest of the world</t>
@@ -184,7 +190,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:16:19</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:53:09</t>
   </si>
 </sst>
 </file>
@@ -749,7 +755,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="527">
+  <cellXfs count="543">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" wrapText="true"/>
@@ -1305,6 +1311,22 @@
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -1809,6 +1831,22 @@
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -2325,6 +2363,22 @@
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -2335,6 +2389,22 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
@@ -2868,586 +2938,604 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="275">
+      <c r="A4" t="s" s="283">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="276">
+      <c r="B4" t="s" s="284">
         <v>4</v>
       </c>
-      <c r="C4" t="s" s="277">
+      <c r="C4" t="s" s="285">
         <v>5</v>
       </c>
-      <c r="D4" s="278"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="280"/>
-      <c r="G4" t="s" s="281">
+      <c r="D4" s="286"/>
+      <c r="E4" s="287"/>
+      <c r="F4" s="288"/>
+      <c r="G4" t="s" s="289">
         <v>6</v>
       </c>
-      <c r="H4" s="282"/>
-      <c r="I4" s="283"/>
-      <c r="J4" s="284"/>
-      <c r="K4" t="s" s="285">
+      <c r="H4" s="290"/>
+      <c r="I4" s="291"/>
+      <c r="J4" s="292"/>
+      <c r="K4" t="s" s="293">
         <v>7</v>
       </c>
-      <c r="L4" s="286"/>
-      <c r="M4" s="287"/>
-      <c r="N4" s="288"/>
-      <c r="O4" t="s" s="289">
+      <c r="L4" s="294"/>
+      <c r="M4" s="295"/>
+      <c r="N4" s="296"/>
+      <c r="O4" t="s" s="297">
         <v>8</v>
       </c>
-      <c r="P4" s="290"/>
-      <c r="Q4" s="291"/>
-      <c r="R4" s="292"/>
-      <c r="S4" t="s" s="293">
+      <c r="P4" s="298"/>
+      <c r="Q4" s="299"/>
+      <c r="R4" s="300"/>
+      <c r="S4" t="s" s="301">
         <v>9</v>
       </c>
-      <c r="T4" s="294"/>
-      <c r="U4" s="295"/>
-      <c r="V4" s="296"/>
-      <c r="W4" t="s" s="297">
+      <c r="T4" s="302"/>
+      <c r="U4" s="303"/>
+      <c r="V4" s="304"/>
+      <c r="W4" t="s" s="305">
         <v>10</v>
       </c>
-      <c r="X4" s="298"/>
-      <c r="Y4" s="299"/>
-      <c r="Z4" s="300"/>
-      <c r="AA4" t="s" s="301">
+      <c r="X4" s="306"/>
+      <c r="Y4" s="307"/>
+      <c r="Z4" s="308"/>
+      <c r="AA4" t="s" s="309">
         <v>11</v>
       </c>
-      <c r="AB4" s="302"/>
-      <c r="AC4" s="303"/>
-      <c r="AD4" s="304"/>
-      <c r="AE4" t="s" s="305">
+      <c r="AB4" s="310"/>
+      <c r="AC4" s="311"/>
+      <c r="AD4" s="312"/>
+      <c r="AE4" t="s" s="313">
         <v>12</v>
       </c>
-      <c r="AF4" s="306"/>
-      <c r="AG4" s="307"/>
-      <c r="AH4" s="308"/>
-      <c r="AI4" t="s" s="309">
+      <c r="AF4" s="314"/>
+      <c r="AG4" s="315"/>
+      <c r="AH4" s="316"/>
+      <c r="AI4" t="s" s="317">
         <v>13</v>
       </c>
-      <c r="AJ4" s="310"/>
-      <c r="AK4" s="311"/>
-      <c r="AL4" s="312"/>
-      <c r="AM4" t="s" s="313">
+      <c r="AJ4" s="318"/>
+      <c r="AK4" s="319"/>
+      <c r="AL4" s="320"/>
+      <c r="AM4" t="s" s="321">
         <v>14</v>
       </c>
-      <c r="AN4" s="314"/>
-      <c r="AO4" s="315"/>
-      <c r="AP4" s="316"/>
-      <c r="AQ4" t="s" s="317">
+      <c r="AN4" s="322"/>
+      <c r="AO4" s="323"/>
+      <c r="AP4" s="324"/>
+      <c r="AQ4" t="s" s="325">
         <v>15</v>
       </c>
-      <c r="AR4" s="318"/>
-      <c r="AS4" s="319"/>
-      <c r="AT4" s="320"/>
-      <c r="AU4" t="s" s="321">
+      <c r="AR4" s="326"/>
+      <c r="AS4" s="327"/>
+      <c r="AT4" s="328"/>
+      <c r="AU4" t="s" s="329">
         <v>16</v>
       </c>
-      <c r="AV4" s="322"/>
-      <c r="AW4" s="323"/>
-      <c r="AX4" s="324"/>
-      <c r="AY4" t="s" s="325">
+      <c r="AV4" s="330"/>
+      <c r="AW4" s="331"/>
+      <c r="AX4" s="332"/>
+      <c r="AY4" t="s" s="333">
         <v>17</v>
       </c>
-      <c r="AZ4" s="326"/>
-      <c r="BA4" s="327"/>
-      <c r="BB4" s="328"/>
-      <c r="BC4" t="s" s="329">
+      <c r="AZ4" s="334"/>
+      <c r="BA4" s="335"/>
+      <c r="BB4" s="336"/>
+      <c r="BC4" t="s" s="337">
         <v>18</v>
       </c>
-      <c r="BD4" s="330"/>
-      <c r="BE4" s="331"/>
-      <c r="BF4" s="332"/>
-      <c r="BG4" t="s" s="333">
+      <c r="BD4" s="338"/>
+      <c r="BE4" s="339"/>
+      <c r="BF4" s="340"/>
+      <c r="BG4" t="s" s="341">
         <v>19</v>
       </c>
-      <c r="BH4" s="334"/>
-      <c r="BI4" s="335"/>
-      <c r="BJ4" s="336"/>
-      <c r="BK4" t="s" s="337">
+      <c r="BH4" s="342"/>
+      <c r="BI4" s="343"/>
+      <c r="BJ4" s="344"/>
+      <c r="BK4" t="s" s="345">
         <v>20</v>
       </c>
-      <c r="BL4" s="338"/>
-      <c r="BM4" s="339"/>
-      <c r="BN4" s="340"/>
-      <c r="BO4" t="s" s="341">
+      <c r="BL4" s="346"/>
+      <c r="BM4" s="347"/>
+      <c r="BN4" s="348"/>
+      <c r="BO4" t="s" s="349">
         <v>21</v>
       </c>
-      <c r="BP4" s="342"/>
-      <c r="BQ4" s="343"/>
-      <c r="BR4" s="344"/>
-      <c r="BS4" t="s" s="345">
+      <c r="BP4" s="350"/>
+      <c r="BQ4" s="351"/>
+      <c r="BR4" s="352"/>
+      <c r="BS4" t="s" s="353">
         <v>22</v>
       </c>
-      <c r="BT4" s="346"/>
-      <c r="BU4" s="347"/>
-      <c r="BV4" s="348"/>
-      <c r="BW4" t="s" s="349">
+      <c r="BT4" s="354"/>
+      <c r="BU4" s="355"/>
+      <c r="BV4" s="356"/>
+      <c r="BW4" t="s" s="357">
         <v>23</v>
       </c>
-      <c r="BX4" s="350"/>
-      <c r="BY4" s="351"/>
-      <c r="BZ4" s="352"/>
-      <c r="CA4" t="s" s="353">
+      <c r="BX4" s="358"/>
+      <c r="BY4" s="359"/>
+      <c r="BZ4" s="360"/>
+      <c r="CA4" t="s" s="361">
         <v>24</v>
       </c>
-      <c r="CB4" s="354"/>
-      <c r="CC4" s="355"/>
-      <c r="CD4" s="356"/>
-      <c r="CE4" t="s" s="357">
+      <c r="CB4" s="362"/>
+      <c r="CC4" s="363"/>
+      <c r="CD4" s="364"/>
+      <c r="CE4" t="s" s="365">
         <v>25</v>
       </c>
-      <c r="CF4" s="358"/>
-      <c r="CG4" s="359"/>
-      <c r="CH4" s="360"/>
-      <c r="CI4" t="s" s="361">
+      <c r="CF4" s="366"/>
+      <c r="CG4" s="367"/>
+      <c r="CH4" s="368"/>
+      <c r="CI4" t="s" s="369">
         <v>26</v>
       </c>
-      <c r="CJ4" s="362"/>
-      <c r="CK4" s="363"/>
-      <c r="CL4" s="364"/>
-      <c r="CM4" t="s" s="365">
+      <c r="CJ4" s="370"/>
+      <c r="CK4" s="371"/>
+      <c r="CL4" s="372"/>
+      <c r="CM4" t="s" s="373">
         <v>27</v>
       </c>
-      <c r="CN4" s="366"/>
-      <c r="CO4" s="367"/>
-      <c r="CP4" s="368"/>
-      <c r="CQ4" t="s" s="369">
+      <c r="CN4" s="374"/>
+      <c r="CO4" s="375"/>
+      <c r="CP4" s="376"/>
+      <c r="CQ4" t="s" s="377">
         <v>28</v>
       </c>
-      <c r="CR4" s="370"/>
-      <c r="CS4" s="371"/>
-      <c r="CT4" s="372"/>
-      <c r="CU4" t="s" s="373">
+      <c r="CR4" s="378"/>
+      <c r="CS4" s="379"/>
+      <c r="CT4" s="380"/>
+      <c r="CU4" t="s" s="381">
         <v>29</v>
       </c>
-      <c r="CV4" s="374"/>
-      <c r="CW4" s="375"/>
-      <c r="CX4" s="376"/>
-      <c r="CY4" t="s" s="377">
+      <c r="CV4" s="382"/>
+      <c r="CW4" s="383"/>
+      <c r="CX4" s="384"/>
+      <c r="CY4" t="s" s="385">
         <v>30</v>
       </c>
-      <c r="CZ4" s="378"/>
-      <c r="DA4" s="379"/>
-      <c r="DB4" s="380"/>
-      <c r="DC4" t="s" s="381">
+      <c r="CZ4" s="386"/>
+      <c r="DA4" s="387"/>
+      <c r="DB4" s="388"/>
+      <c r="DC4" t="s" s="389">
         <v>31</v>
       </c>
-      <c r="DD4" s="382"/>
-      <c r="DE4" s="383"/>
-      <c r="DF4" s="384"/>
-      <c r="DG4" t="s" s="385">
+      <c r="DD4" s="390"/>
+      <c r="DE4" s="391"/>
+      <c r="DF4" s="392"/>
+      <c r="DG4" t="s" s="393">
         <v>32</v>
       </c>
-      <c r="DH4" s="386"/>
-      <c r="DI4" s="387"/>
-      <c r="DJ4" s="388"/>
-      <c r="DK4" t="s" s="389">
+      <c r="DH4" s="394"/>
+      <c r="DI4" s="395"/>
+      <c r="DJ4" s="396"/>
+      <c r="DK4" t="s" s="397">
         <v>33</v>
       </c>
-      <c r="DL4" s="390"/>
-      <c r="DM4" s="391"/>
-      <c r="DN4" s="392"/>
-      <c r="DO4" t="s" s="393">
+      <c r="DL4" s="398"/>
+      <c r="DM4" s="399"/>
+      <c r="DN4" s="400"/>
+      <c r="DO4" t="s" s="401">
         <v>34</v>
       </c>
-      <c r="DP4" s="394"/>
-      <c r="DQ4" s="395"/>
-      <c r="DR4" s="396"/>
-      <c r="DS4" t="s" s="397">
+      <c r="DP4" s="402"/>
+      <c r="DQ4" s="403"/>
+      <c r="DR4" s="404"/>
+      <c r="DS4" t="s" s="405">
         <v>35</v>
       </c>
-      <c r="DT4" s="398"/>
-      <c r="DU4" s="399"/>
-      <c r="DV4" s="400"/>
+      <c r="DT4" s="406"/>
+      <c r="DU4" s="407"/>
+      <c r="DV4" s="408"/>
+      <c r="DW4" t="s" s="409">
+        <v>36</v>
+      </c>
+      <c r="DX4" s="410"/>
+      <c r="DY4" s="411"/>
+      <c r="DZ4" s="412"/>
     </row>
     <row r="5">
-      <c r="A5" s="401"/>
-      <c r="B5" s="402"/>
-      <c r="C5" t="s" s="403">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s" s="404">
+      <c r="A5" s="413"/>
+      <c r="B5" s="414"/>
+      <c r="C5" t="s" s="415">
         <v>37</v>
       </c>
-      <c r="E5" t="s" s="405">
+      <c r="D5" t="s" s="416">
         <v>38</v>
       </c>
-      <c r="F5" t="s" s="406">
+      <c r="E5" t="s" s="417">
         <v>39</v>
       </c>
-      <c r="G5" t="s" s="407">
-        <v>36</v>
-      </c>
-      <c r="H5" t="s" s="408">
+      <c r="F5" t="s" s="418">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s" s="419">
         <v>37</v>
       </c>
-      <c r="I5" t="s" s="409">
+      <c r="H5" t="s" s="420">
         <v>38</v>
       </c>
-      <c r="J5" t="s" s="410">
+      <c r="I5" t="s" s="421">
         <v>39</v>
       </c>
-      <c r="K5" t="s" s="411">
-        <v>36</v>
-      </c>
-      <c r="L5" t="s" s="412">
+      <c r="J5" t="s" s="422">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s" s="423">
         <v>37</v>
       </c>
-      <c r="M5" t="s" s="413">
+      <c r="L5" t="s" s="424">
         <v>38</v>
       </c>
-      <c r="N5" t="s" s="414">
+      <c r="M5" t="s" s="425">
         <v>39</v>
       </c>
-      <c r="O5" t="s" s="415">
-        <v>36</v>
-      </c>
-      <c r="P5" t="s" s="416">
+      <c r="N5" t="s" s="426">
+        <v>40</v>
+      </c>
+      <c r="O5" t="s" s="427">
         <v>37</v>
       </c>
-      <c r="Q5" t="s" s="417">
+      <c r="P5" t="s" s="428">
         <v>38</v>
       </c>
-      <c r="R5" t="s" s="418">
+      <c r="Q5" t="s" s="429">
         <v>39</v>
       </c>
-      <c r="S5" t="s" s="419">
-        <v>36</v>
-      </c>
-      <c r="T5" t="s" s="420">
+      <c r="R5" t="s" s="430">
+        <v>40</v>
+      </c>
+      <c r="S5" t="s" s="431">
         <v>37</v>
       </c>
-      <c r="U5" t="s" s="421">
+      <c r="T5" t="s" s="432">
         <v>38</v>
       </c>
-      <c r="V5" t="s" s="422">
+      <c r="U5" t="s" s="433">
         <v>39</v>
       </c>
-      <c r="W5" t="s" s="423">
-        <v>36</v>
-      </c>
-      <c r="X5" t="s" s="424">
+      <c r="V5" t="s" s="434">
+        <v>40</v>
+      </c>
+      <c r="W5" t="s" s="435">
         <v>37</v>
       </c>
-      <c r="Y5" t="s" s="425">
+      <c r="X5" t="s" s="436">
         <v>38</v>
       </c>
-      <c r="Z5" t="s" s="426">
+      <c r="Y5" t="s" s="437">
         <v>39</v>
       </c>
-      <c r="AA5" t="s" s="427">
-        <v>36</v>
-      </c>
-      <c r="AB5" t="s" s="428">
+      <c r="Z5" t="s" s="438">
+        <v>40</v>
+      </c>
+      <c r="AA5" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="AC5" t="s" s="429">
+      <c r="AB5" t="s" s="440">
         <v>38</v>
       </c>
-      <c r="AD5" t="s" s="430">
+      <c r="AC5" t="s" s="441">
         <v>39</v>
       </c>
-      <c r="AE5" t="s" s="431">
-        <v>36</v>
-      </c>
-      <c r="AF5" t="s" s="432">
+      <c r="AD5" t="s" s="442">
+        <v>40</v>
+      </c>
+      <c r="AE5" t="s" s="443">
         <v>37</v>
       </c>
-      <c r="AG5" t="s" s="433">
+      <c r="AF5" t="s" s="444">
         <v>38</v>
       </c>
-      <c r="AH5" t="s" s="434">
+      <c r="AG5" t="s" s="445">
         <v>39</v>
       </c>
-      <c r="AI5" t="s" s="435">
-        <v>36</v>
-      </c>
-      <c r="AJ5" t="s" s="436">
+      <c r="AH5" t="s" s="446">
+        <v>40</v>
+      </c>
+      <c r="AI5" t="s" s="447">
         <v>37</v>
       </c>
-      <c r="AK5" t="s" s="437">
+      <c r="AJ5" t="s" s="448">
         <v>38</v>
       </c>
-      <c r="AL5" t="s" s="438">
+      <c r="AK5" t="s" s="449">
         <v>39</v>
       </c>
-      <c r="AM5" t="s" s="439">
-        <v>36</v>
-      </c>
-      <c r="AN5" t="s" s="440">
+      <c r="AL5" t="s" s="450">
+        <v>40</v>
+      </c>
+      <c r="AM5" t="s" s="451">
         <v>37</v>
       </c>
-      <c r="AO5" t="s" s="441">
+      <c r="AN5" t="s" s="452">
         <v>38</v>
       </c>
-      <c r="AP5" t="s" s="442">
+      <c r="AO5" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="AQ5" t="s" s="443">
-        <v>36</v>
-      </c>
-      <c r="AR5" t="s" s="444">
+      <c r="AP5" t="s" s="454">
+        <v>40</v>
+      </c>
+      <c r="AQ5" t="s" s="455">
         <v>37</v>
       </c>
-      <c r="AS5" t="s" s="445">
+      <c r="AR5" t="s" s="456">
         <v>38</v>
       </c>
-      <c r="AT5" t="s" s="446">
+      <c r="AS5" t="s" s="457">
         <v>39</v>
       </c>
-      <c r="AU5" t="s" s="447">
-        <v>36</v>
-      </c>
-      <c r="AV5" t="s" s="448">
+      <c r="AT5" t="s" s="458">
+        <v>40</v>
+      </c>
+      <c r="AU5" t="s" s="459">
         <v>37</v>
       </c>
-      <c r="AW5" t="s" s="449">
+      <c r="AV5" t="s" s="460">
         <v>38</v>
       </c>
-      <c r="AX5" t="s" s="450">
+      <c r="AW5" t="s" s="461">
         <v>39</v>
       </c>
-      <c r="AY5" t="s" s="451">
-        <v>36</v>
-      </c>
-      <c r="AZ5" t="s" s="452">
+      <c r="AX5" t="s" s="462">
+        <v>40</v>
+      </c>
+      <c r="AY5" t="s" s="463">
         <v>37</v>
       </c>
-      <c r="BA5" t="s" s="453">
+      <c r="AZ5" t="s" s="464">
         <v>38</v>
       </c>
-      <c r="BB5" t="s" s="454">
+      <c r="BA5" t="s" s="465">
         <v>39</v>
       </c>
-      <c r="BC5" t="s" s="455">
-        <v>36</v>
-      </c>
-      <c r="BD5" t="s" s="456">
+      <c r="BB5" t="s" s="466">
+        <v>40</v>
+      </c>
+      <c r="BC5" t="s" s="467">
         <v>37</v>
       </c>
-      <c r="BE5" t="s" s="457">
+      <c r="BD5" t="s" s="468">
         <v>38</v>
       </c>
-      <c r="BF5" t="s" s="458">
+      <c r="BE5" t="s" s="469">
         <v>39</v>
       </c>
-      <c r="BG5" t="s" s="459">
-        <v>36</v>
-      </c>
-      <c r="BH5" t="s" s="460">
+      <c r="BF5" t="s" s="470">
+        <v>40</v>
+      </c>
+      <c r="BG5" t="s" s="471">
         <v>37</v>
       </c>
-      <c r="BI5" t="s" s="461">
+      <c r="BH5" t="s" s="472">
         <v>38</v>
       </c>
-      <c r="BJ5" t="s" s="462">
+      <c r="BI5" t="s" s="473">
         <v>39</v>
       </c>
-      <c r="BK5" t="s" s="463">
-        <v>36</v>
-      </c>
-      <c r="BL5" t="s" s="464">
+      <c r="BJ5" t="s" s="474">
+        <v>40</v>
+      </c>
+      <c r="BK5" t="s" s="475">
         <v>37</v>
       </c>
-      <c r="BM5" t="s" s="465">
+      <c r="BL5" t="s" s="476">
         <v>38</v>
       </c>
-      <c r="BN5" t="s" s="466">
+      <c r="BM5" t="s" s="477">
         <v>39</v>
       </c>
-      <c r="BO5" t="s" s="467">
-        <v>36</v>
-      </c>
-      <c r="BP5" t="s" s="468">
+      <c r="BN5" t="s" s="478">
+        <v>40</v>
+      </c>
+      <c r="BO5" t="s" s="479">
         <v>37</v>
       </c>
-      <c r="BQ5" t="s" s="469">
+      <c r="BP5" t="s" s="480">
         <v>38</v>
       </c>
-      <c r="BR5" t="s" s="470">
+      <c r="BQ5" t="s" s="481">
         <v>39</v>
       </c>
-      <c r="BS5" t="s" s="471">
-        <v>36</v>
-      </c>
-      <c r="BT5" t="s" s="472">
+      <c r="BR5" t="s" s="482">
+        <v>40</v>
+      </c>
+      <c r="BS5" t="s" s="483">
         <v>37</v>
       </c>
-      <c r="BU5" t="s" s="473">
+      <c r="BT5" t="s" s="484">
         <v>38</v>
       </c>
-      <c r="BV5" t="s" s="474">
+      <c r="BU5" t="s" s="485">
         <v>39</v>
       </c>
-      <c r="BW5" t="s" s="475">
-        <v>36</v>
-      </c>
-      <c r="BX5" t="s" s="476">
+      <c r="BV5" t="s" s="486">
+        <v>40</v>
+      </c>
+      <c r="BW5" t="s" s="487">
         <v>37</v>
       </c>
-      <c r="BY5" t="s" s="477">
+      <c r="BX5" t="s" s="488">
         <v>38</v>
       </c>
-      <c r="BZ5" t="s" s="478">
+      <c r="BY5" t="s" s="489">
         <v>39</v>
       </c>
-      <c r="CA5" t="s" s="479">
-        <v>36</v>
-      </c>
-      <c r="CB5" t="s" s="480">
+      <c r="BZ5" t="s" s="490">
+        <v>40</v>
+      </c>
+      <c r="CA5" t="s" s="491">
         <v>37</v>
       </c>
-      <c r="CC5" t="s" s="481">
+      <c r="CB5" t="s" s="492">
         <v>38</v>
       </c>
-      <c r="CD5" t="s" s="482">
+      <c r="CC5" t="s" s="493">
         <v>39</v>
       </c>
-      <c r="CE5" t="s" s="483">
-        <v>36</v>
-      </c>
-      <c r="CF5" t="s" s="484">
+      <c r="CD5" t="s" s="494">
+        <v>40</v>
+      </c>
+      <c r="CE5" t="s" s="495">
         <v>37</v>
       </c>
-      <c r="CG5" t="s" s="485">
+      <c r="CF5" t="s" s="496">
         <v>38</v>
       </c>
-      <c r="CH5" t="s" s="486">
+      <c r="CG5" t="s" s="497">
         <v>39</v>
       </c>
-      <c r="CI5" t="s" s="487">
-        <v>36</v>
-      </c>
-      <c r="CJ5" t="s" s="488">
+      <c r="CH5" t="s" s="498">
+        <v>40</v>
+      </c>
+      <c r="CI5" t="s" s="499">
         <v>37</v>
       </c>
-      <c r="CK5" t="s" s="489">
+      <c r="CJ5" t="s" s="500">
         <v>38</v>
       </c>
-      <c r="CL5" t="s" s="490">
+      <c r="CK5" t="s" s="501">
         <v>39</v>
       </c>
-      <c r="CM5" t="s" s="491">
-        <v>36</v>
-      </c>
-      <c r="CN5" t="s" s="492">
+      <c r="CL5" t="s" s="502">
+        <v>40</v>
+      </c>
+      <c r="CM5" t="s" s="503">
         <v>37</v>
       </c>
-      <c r="CO5" t="s" s="493">
+      <c r="CN5" t="s" s="504">
         <v>38</v>
       </c>
-      <c r="CP5" t="s" s="494">
+      <c r="CO5" t="s" s="505">
         <v>39</v>
       </c>
-      <c r="CQ5" t="s" s="495">
-        <v>36</v>
-      </c>
-      <c r="CR5" t="s" s="496">
+      <c r="CP5" t="s" s="506">
+        <v>40</v>
+      </c>
+      <c r="CQ5" t="s" s="507">
         <v>37</v>
       </c>
-      <c r="CS5" t="s" s="497">
+      <c r="CR5" t="s" s="508">
         <v>38</v>
       </c>
-      <c r="CT5" t="s" s="498">
+      <c r="CS5" t="s" s="509">
         <v>39</v>
       </c>
-      <c r="CU5" t="s" s="499">
-        <v>36</v>
-      </c>
-      <c r="CV5" t="s" s="500">
+      <c r="CT5" t="s" s="510">
+        <v>40</v>
+      </c>
+      <c r="CU5" t="s" s="511">
         <v>37</v>
       </c>
-      <c r="CW5" t="s" s="501">
+      <c r="CV5" t="s" s="512">
         <v>38</v>
       </c>
-      <c r="CX5" t="s" s="502">
+      <c r="CW5" t="s" s="513">
         <v>39</v>
       </c>
-      <c r="CY5" t="s" s="503">
-        <v>36</v>
-      </c>
-      <c r="CZ5" t="s" s="504">
+      <c r="CX5" t="s" s="514">
+        <v>40</v>
+      </c>
+      <c r="CY5" t="s" s="515">
         <v>37</v>
       </c>
-      <c r="DA5" t="s" s="505">
+      <c r="CZ5" t="s" s="516">
         <v>38</v>
       </c>
-      <c r="DB5" t="s" s="506">
+      <c r="DA5" t="s" s="517">
         <v>39</v>
       </c>
-      <c r="DC5" t="s" s="507">
-        <v>36</v>
-      </c>
-      <c r="DD5" t="s" s="508">
+      <c r="DB5" t="s" s="518">
+        <v>40</v>
+      </c>
+      <c r="DC5" t="s" s="519">
         <v>37</v>
       </c>
-      <c r="DE5" t="s" s="509">
+      <c r="DD5" t="s" s="520">
         <v>38</v>
       </c>
-      <c r="DF5" t="s" s="510">
+      <c r="DE5" t="s" s="521">
         <v>39</v>
       </c>
-      <c r="DG5" t="s" s="511">
-        <v>36</v>
-      </c>
-      <c r="DH5" t="s" s="512">
+      <c r="DF5" t="s" s="522">
+        <v>40</v>
+      </c>
+      <c r="DG5" t="s" s="523">
         <v>37</v>
       </c>
-      <c r="DI5" t="s" s="513">
+      <c r="DH5" t="s" s="524">
         <v>38</v>
       </c>
-      <c r="DJ5" t="s" s="514">
+      <c r="DI5" t="s" s="525">
         <v>39</v>
       </c>
-      <c r="DK5" t="s" s="515">
-        <v>36</v>
-      </c>
-      <c r="DL5" t="s" s="516">
+      <c r="DJ5" t="s" s="526">
+        <v>40</v>
+      </c>
+      <c r="DK5" t="s" s="527">
         <v>37</v>
       </c>
-      <c r="DM5" t="s" s="517">
+      <c r="DL5" t="s" s="528">
         <v>38</v>
       </c>
-      <c r="DN5" t="s" s="518">
+      <c r="DM5" t="s" s="529">
         <v>39</v>
       </c>
-      <c r="DO5" t="s" s="519">
-        <v>36</v>
-      </c>
-      <c r="DP5" t="s" s="520">
+      <c r="DN5" t="s" s="530">
+        <v>40</v>
+      </c>
+      <c r="DO5" t="s" s="531">
         <v>37</v>
       </c>
-      <c r="DQ5" t="s" s="521">
+      <c r="DP5" t="s" s="532">
         <v>38</v>
       </c>
-      <c r="DR5" t="s" s="522">
+      <c r="DQ5" t="s" s="533">
         <v>39</v>
       </c>
-      <c r="DS5" t="s" s="523">
-        <v>36</v>
-      </c>
-      <c r="DT5" t="s" s="524">
+      <c r="DR5" t="s" s="534">
+        <v>40</v>
+      </c>
+      <c r="DS5" t="s" s="535">
         <v>37</v>
       </c>
-      <c r="DU5" t="s" s="525">
+      <c r="DT5" t="s" s="536">
         <v>38</v>
       </c>
-      <c r="DV5" t="s" s="526">
+      <c r="DU5" t="s" s="537">
         <v>39</v>
+      </c>
+      <c r="DV5" t="s" s="538">
+        <v>40</v>
+      </c>
+      <c r="DW5" t="s" s="539">
+        <v>37</v>
+      </c>
+      <c r="DX5" t="s" s="540">
+        <v>38</v>
+      </c>
+      <c r="DY5" t="s" s="541">
+        <v>39</v>
+      </c>
+      <c r="DZ5" t="s" s="542">
+        <v>40</v>
       </c>
     </row>
     <row r="6" ht="33.75" customHeight="true">
       <c r="A6" t="s" s="14">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" t="n" s="10">
         <v>374.85</v>
@@ -3820,14 +3908,26 @@
       </c>
       <c r="DV7" t="n" s="10">
         <v>940.54</v>
+      </c>
+      <c r="DW7" t="n" s="10">
+        <v>916.93</v>
+      </c>
+      <c r="DX7" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY7" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ7" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="9">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s" s="13">
         <v>43</v>
-      </c>
-      <c r="B8" t="s" s="13">
-        <v>42</v>
       </c>
       <c r="C8" t="n" s="10">
         <v>17.161</v>
@@ -4190,24 +4290,36 @@
         <v>52.441</v>
       </c>
       <c r="DS8" t="n" s="10">
-        <v>49.423</v>
+        <v>49.494</v>
       </c>
       <c r="DT8" t="n" s="10">
-        <v>51.297</v>
+        <v>51.385</v>
       </c>
       <c r="DU8" t="n" s="10">
-        <v>51.859</v>
+        <v>51.945</v>
       </c>
       <c r="DV8" t="n" s="10">
-        <v>58.681</v>
+        <v>58.812</v>
+      </c>
+      <c r="DW8" t="n" s="10">
+        <v>59.643</v>
+      </c>
+      <c r="DX8" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY8" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ8" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="9">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="n" s="10">
         <v>12.356</v>
@@ -4570,24 +4682,36 @@
         <v>21.623</v>
       </c>
       <c r="DS9" t="n" s="10">
-        <v>20.983</v>
+        <v>21.234</v>
       </c>
       <c r="DT9" t="n" s="10">
-        <v>37.433</v>
+        <v>37.664</v>
       </c>
       <c r="DU9" t="n" s="10">
-        <v>22.919</v>
+        <v>23.16</v>
       </c>
       <c r="DV9" t="n" s="10">
-        <v>22.023</v>
+        <v>22.378</v>
+      </c>
+      <c r="DW9" t="n" s="10">
+        <v>22.67</v>
+      </c>
+      <c r="DX9" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY9" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ9" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="n" s="10">
         <v>379.655</v>
@@ -4950,24 +5074,36 @@
         <v>911.128</v>
       </c>
       <c r="DS10" t="n" s="10">
-        <v>877.09</v>
+        <v>876.91</v>
       </c>
       <c r="DT10" t="n" s="10">
-        <v>879.924</v>
+        <v>879.781</v>
       </c>
       <c r="DU10" t="n" s="10">
-        <v>944.31</v>
+        <v>944.155</v>
       </c>
       <c r="DV10" t="n" s="10">
-        <v>977.198</v>
+        <v>976.974</v>
+      </c>
+      <c r="DW10" t="n" s="10">
+        <v>953.903</v>
+      </c>
+      <c r="DX10" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY10" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ10" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="9">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="n" s="10">
         <v>59.859</v>
@@ -5330,24 +5466,36 @@
         <v>164.662</v>
       </c>
       <c r="DS11" t="n" s="10">
-        <v>168.222</v>
+        <v>168.302</v>
       </c>
       <c r="DT11" t="n" s="10">
-        <v>171.482</v>
+        <v>171.548</v>
       </c>
       <c r="DU11" t="n" s="10">
-        <v>176.29</v>
+        <v>176.357</v>
       </c>
       <c r="DV11" t="n" s="10">
-        <v>178.044</v>
+        <v>178.04</v>
+      </c>
+      <c r="DW11" t="n" s="10">
+        <v>183.665</v>
+      </c>
+      <c r="DX11" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY11" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ11" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="9">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" t="n" s="10">
         <v>319.796</v>
@@ -5710,24 +5858,36 @@
         <v>746.466</v>
       </c>
       <c r="DS12" t="n" s="10">
-        <v>708.868</v>
+        <v>708.608</v>
       </c>
       <c r="DT12" t="n" s="10">
-        <v>708.442</v>
+        <v>708.233</v>
       </c>
       <c r="DU12" t="n" s="10">
-        <v>768.02</v>
+        <v>767.798</v>
       </c>
       <c r="DV12" t="n" s="10">
-        <v>799.154</v>
+        <v>798.934</v>
+      </c>
+      <c r="DW12" t="n" s="10">
+        <v>770.238</v>
+      </c>
+      <c r="DX12" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY12" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ12" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="9">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" t="n" s="10">
         <v>3.252</v>
@@ -6090,24 +6250,36 @@
         <v>16.596</v>
       </c>
       <c r="DS13" t="n" s="10">
-        <v>21.696</v>
+        <v>21.171</v>
       </c>
       <c r="DT13" t="n" s="10">
-        <v>20.92</v>
+        <v>20.573</v>
       </c>
       <c r="DU13" t="n" s="10">
-        <v>18.175</v>
+        <v>17.093</v>
       </c>
       <c r="DV13" t="n" s="10">
-        <v>19.133</v>
+        <v>17.866</v>
+      </c>
+      <c r="DW13" t="n" s="10">
+        <v>20.769</v>
+      </c>
+      <c r="DX13" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY13" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ13" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="9">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" t="n" s="10">
         <v>15.137</v>
@@ -6470,24 +6642,36 @@
         <v>30.759</v>
       </c>
       <c r="DS14" t="n" s="10">
-        <v>32.665</v>
+        <v>32.666</v>
       </c>
       <c r="DT14" t="n" s="10">
-        <v>29.64</v>
+        <v>29.639</v>
       </c>
       <c r="DU14" t="n" s="10">
         <v>31.811</v>
       </c>
       <c r="DV14" t="n" s="10">
         <v>33.567</v>
+      </c>
+      <c r="DW14" t="n" s="10">
+        <v>35.078</v>
+      </c>
+      <c r="DX14" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY14" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ14" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="9">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" t="n" s="10">
         <v>307.911</v>
@@ -6850,24 +7034,36 @@
         <v>732.303</v>
       </c>
       <c r="DS15" t="n" s="10">
-        <v>697.899</v>
+        <v>697.113</v>
       </c>
       <c r="DT15" t="n" s="10">
-        <v>699.722</v>
+        <v>699.167</v>
       </c>
       <c r="DU15" t="n" s="10">
-        <v>754.384</v>
+        <v>753.08</v>
       </c>
       <c r="DV15" t="n" s="10">
-        <v>784.72</v>
+        <v>783.233</v>
+      </c>
+      <c r="DW15" t="n" s="10">
+        <v>755.929</v>
+      </c>
+      <c r="DX15" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY15" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ15" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="9">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" t="n" s="10">
         <v>33.261</v>
@@ -7230,24 +7426,36 @@
         <v>90.928</v>
       </c>
       <c r="DS16" t="n" s="10">
-        <v>103.42</v>
+        <v>103.473</v>
       </c>
       <c r="DT16" t="n" s="10">
-        <v>76.788</v>
+        <v>76.045</v>
       </c>
       <c r="DU16" t="n" s="10">
-        <v>92.323</v>
+        <v>89.813</v>
       </c>
       <c r="DV16" t="n" s="10">
-        <v>99.867</v>
+        <v>96.352</v>
+      </c>
+      <c r="DW16" t="n" s="10">
+        <v>93.324</v>
+      </c>
+      <c r="DX16" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY16" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ16" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="9">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" t="n" s="10">
         <v>-8.712</v>
@@ -7610,29 +7818,41 @@
         <v>70.98</v>
       </c>
       <c r="DS17" t="n" s="10">
-        <v>75.765</v>
+        <v>74.575</v>
       </c>
       <c r="DT17" t="n" s="10">
-        <v>55.255</v>
+        <v>55.244</v>
       </c>
       <c r="DU17" t="n" s="10">
-        <v>58.122</v>
+        <v>56.276</v>
       </c>
       <c r="DV17" t="n" s="10">
-        <v>56.332</v>
+        <v>53.527</v>
+      </c>
+      <c r="DW17" t="n" s="10">
+        <v>50.977</v>
+      </c>
+      <c r="DX17" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY17" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ17" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="18" ht="33.75" customHeight="true">
       <c r="A18" t="s" s="14">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" t="n" s="10">
         <v>386.276</v>
@@ -8005,14 +8225,26 @@
       </c>
       <c r="DV19" t="n" s="10">
         <v>923.302</v>
+      </c>
+      <c r="DW19" t="n" s="10">
+        <v>927.181</v>
+      </c>
+      <c r="DX19" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY19" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ19" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="9">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s" s="13">
         <v>43</v>
-      </c>
-      <c r="B20" t="s" s="13">
-        <v>42</v>
       </c>
       <c r="C20" t="n" s="10">
         <v>17.621</v>
@@ -8375,24 +8607,36 @@
         <v>49.09</v>
       </c>
       <c r="DS20" t="n" s="10">
-        <v>51.007</v>
+        <v>51.08</v>
       </c>
       <c r="DT20" t="n" s="10">
-        <v>51.271</v>
+        <v>51.36</v>
       </c>
       <c r="DU20" t="n" s="10">
-        <v>53.958</v>
+        <v>54.048</v>
       </c>
       <c r="DV20" t="n" s="10">
-        <v>55.024</v>
+        <v>55.148</v>
+      </c>
+      <c r="DW20" t="n" s="10">
+        <v>61.526</v>
+      </c>
+      <c r="DX20" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY20" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ20" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="9">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" t="n" s="10">
         <v>12.344</v>
@@ -8755,24 +8999,36 @@
         <v>25.988</v>
       </c>
       <c r="DS21" t="n" s="10">
-        <v>25.087</v>
+        <v>25.366</v>
       </c>
       <c r="DT21" t="n" s="10">
-        <v>24.976</v>
+        <v>25.109</v>
       </c>
       <c r="DU21" t="n" s="10">
-        <v>26.521</v>
+        <v>26.778</v>
       </c>
       <c r="DV21" t="n" s="10">
-        <v>26.774</v>
+        <v>27.183</v>
+      </c>
+      <c r="DW21" t="n" s="10">
+        <v>27.184</v>
+      </c>
+      <c r="DX21" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY21" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ21" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" t="n" s="10">
         <v>391.553</v>
@@ -9135,24 +9391,36 @@
         <v>887.311</v>
       </c>
       <c r="DS22" t="n" s="10">
-        <v>884.033</v>
+        <v>883.827</v>
       </c>
       <c r="DT22" t="n" s="10">
-        <v>902.822</v>
+        <v>902.778</v>
       </c>
       <c r="DU22" t="n" s="10">
-        <v>940.115</v>
+        <v>939.948</v>
       </c>
       <c r="DV22" t="n" s="10">
-        <v>951.552</v>
+        <v>951.267</v>
+      </c>
+      <c r="DW22" t="n" s="10">
+        <v>961.523</v>
+      </c>
+      <c r="DX22" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY22" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ22" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="9">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" t="n" s="10">
         <v>59.843</v>
@@ -9515,24 +9783,36 @@
         <v>165.249</v>
       </c>
       <c r="DS23" t="n" s="10">
-        <v>167.696</v>
+        <v>167.776</v>
       </c>
       <c r="DT23" t="n" s="10">
-        <v>171.329</v>
+        <v>171.395</v>
       </c>
       <c r="DU23" t="n" s="10">
-        <v>176.361</v>
+        <v>176.428</v>
       </c>
       <c r="DV23" t="n" s="10">
-        <v>178.653</v>
+        <v>178.649</v>
+      </c>
+      <c r="DW23" t="n" s="10">
+        <v>183.108</v>
+      </c>
+      <c r="DX23" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY23" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ23" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="9">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" t="n" s="10">
         <v>331.71</v>
@@ -9895,24 +10175,36 @@
         <v>722.062</v>
       </c>
       <c r="DS24" t="n" s="10">
-        <v>716.337</v>
+        <v>716.051</v>
       </c>
       <c r="DT24" t="n" s="10">
-        <v>731.493</v>
+        <v>731.383</v>
       </c>
       <c r="DU24" t="n" s="10">
-        <v>763.754</v>
+        <v>763.52</v>
       </c>
       <c r="DV24" t="n" s="10">
-        <v>772.899</v>
+        <v>772.618</v>
+      </c>
+      <c r="DW24" t="n" s="10">
+        <v>778.415</v>
+      </c>
+      <c r="DX24" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY24" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ24" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="9">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25" t="n" s="10">
         <v>3.253</v>
@@ -10275,24 +10567,36 @@
         <v>18.454</v>
       </c>
       <c r="DS25" t="n" s="10">
-        <v>19.966</v>
+        <v>19.441</v>
       </c>
       <c r="DT25" t="n" s="10">
-        <v>18.885</v>
+        <v>18.538</v>
       </c>
       <c r="DU25" t="n" s="10">
-        <v>20.112</v>
+        <v>19.03</v>
       </c>
       <c r="DV25" t="n" s="10">
-        <v>20.961</v>
+        <v>19.694</v>
+      </c>
+      <c r="DW25" t="n" s="10">
+        <v>18.958</v>
+      </c>
+      <c r="DX25" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY25" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ25" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="9">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" t="n" s="10">
         <v>14.749</v>
@@ -10655,24 +10959,36 @@
         <v>30.458</v>
       </c>
       <c r="DS26" t="n" s="10">
-        <v>30.201</v>
+        <v>30.202</v>
       </c>
       <c r="DT26" t="n" s="10">
-        <v>31.213</v>
+        <v>31.212</v>
       </c>
       <c r="DU26" t="n" s="10">
         <v>33.106</v>
       </c>
       <c r="DV26" t="n" s="10">
         <v>33.162</v>
+      </c>
+      <c r="DW26" t="n" s="10">
+        <v>32.839</v>
+      </c>
+      <c r="DX26" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY26" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ26" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="9">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27" t="n" s="10">
         <v>320.214</v>
@@ -11035,24 +11351,36 @@
         <v>710.058</v>
       </c>
       <c r="DS27" t="n" s="10">
-        <v>706.102</v>
+        <v>705.29</v>
       </c>
       <c r="DT27" t="n" s="10">
-        <v>719.165</v>
+        <v>718.709</v>
       </c>
       <c r="DU27" t="n" s="10">
-        <v>750.76</v>
+        <v>749.444</v>
       </c>
       <c r="DV27" t="n" s="10">
-        <v>760.698</v>
+        <v>759.15</v>
+      </c>
+      <c r="DW27" t="n" s="10">
+        <v>764.534</v>
+      </c>
+      <c r="DX27" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY27" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ27" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="9">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" t="n" s="10">
         <v>34.428</v>
@@ -11175,16 +11503,16 @@
         <v>30.328</v>
       </c>
       <c r="AQ28" t="n" s="10">
-        <v>32.855</v>
+        <v>32.858</v>
       </c>
       <c r="AR28" t="n" s="10">
-        <v>28.084</v>
+        <v>28.087</v>
       </c>
       <c r="AS28" t="n" s="10">
-        <v>31.036</v>
+        <v>31.039</v>
       </c>
       <c r="AT28" t="n" s="10">
-        <v>31.892</v>
+        <v>31.882</v>
       </c>
       <c r="AU28" t="n" s="10">
         <v>27.849</v>
@@ -11259,16 +11587,16 @@
         <v>69.457</v>
       </c>
       <c r="BS28" t="n" s="10">
-        <v>68.668</v>
+        <v>68.672</v>
       </c>
       <c r="BT28" t="n" s="10">
-        <v>70.185</v>
+        <v>70.188</v>
       </c>
       <c r="BU28" t="n" s="10">
-        <v>61.039</v>
+        <v>61.042</v>
       </c>
       <c r="BV28" t="n" s="10">
-        <v>49.247</v>
+        <v>49.237</v>
       </c>
       <c r="BW28" t="n" s="10">
         <v>29.812</v>
@@ -11307,31 +11635,31 @@
         <v>68.152</v>
       </c>
       <c r="CI28" t="n" s="10">
-        <v>62.37</v>
+        <v>62.353</v>
       </c>
       <c r="CJ28" t="n" s="10">
-        <v>59.892</v>
+        <v>59.888</v>
       </c>
       <c r="CK28" t="n" s="10">
-        <v>63.285</v>
+        <v>63.295</v>
       </c>
       <c r="CL28" t="n" s="10">
-        <v>58.399</v>
+        <v>58.41</v>
       </c>
       <c r="CM28" t="n" s="10">
-        <v>49.179</v>
+        <v>49.164</v>
       </c>
       <c r="CN28" t="n" s="10">
         <v>63.941</v>
       </c>
       <c r="CO28" t="n" s="10">
-        <v>62.321</v>
+        <v>62.335</v>
       </c>
       <c r="CP28" t="n" s="10">
         <v>63.29</v>
       </c>
       <c r="CQ28" t="n" s="10">
-        <v>67.939</v>
+        <v>67.924</v>
       </c>
       <c r="CR28" t="n" s="10">
         <v>69.521</v>
@@ -11340,99 +11668,111 @@
         <v>73.792</v>
       </c>
       <c r="CT28" t="n" s="10">
-        <v>76.44</v>
+        <v>76.455</v>
       </c>
       <c r="CU28" t="n" s="10">
-        <v>72.084</v>
+        <v>72.069</v>
       </c>
       <c r="CV28" t="n" s="10">
         <v>77.54</v>
       </c>
       <c r="CW28" t="n" s="10">
-        <v>85.223</v>
+        <v>85.238</v>
       </c>
       <c r="CX28" t="n" s="10">
         <v>81.748</v>
       </c>
       <c r="CY28" t="n" s="10">
-        <v>80.74</v>
+        <v>80.669</v>
       </c>
       <c r="CZ28" t="n" s="10">
-        <v>92.73</v>
+        <v>92.703</v>
       </c>
       <c r="DA28" t="n" s="10">
-        <v>80.432</v>
+        <v>80.496</v>
       </c>
       <c r="DB28" t="n" s="10">
-        <v>85.452</v>
+        <v>85.486</v>
       </c>
       <c r="DC28" t="n" s="10">
-        <v>88.935</v>
+        <v>88.813</v>
       </c>
       <c r="DD28" t="n" s="10">
-        <v>85.593</v>
+        <v>85.562</v>
       </c>
       <c r="DE28" t="n" s="10">
-        <v>95.364</v>
+        <v>95.455</v>
       </c>
       <c r="DF28" t="n" s="10">
-        <v>96.318</v>
+        <v>96.379</v>
       </c>
       <c r="DG28" t="n" s="10">
-        <v>96.673</v>
+        <v>96.47</v>
       </c>
       <c r="DH28" t="n" s="10">
-        <v>104.305</v>
+        <v>104.272</v>
       </c>
       <c r="DI28" t="n" s="10">
-        <v>97.771</v>
+        <v>97.928</v>
       </c>
       <c r="DJ28" t="n" s="10">
-        <v>100.685</v>
+        <v>100.764</v>
       </c>
       <c r="DK28" t="n" s="10">
-        <v>105.049</v>
+        <v>104.731</v>
       </c>
       <c r="DL28" t="n" s="10">
-        <v>96.154</v>
+        <v>96.104</v>
       </c>
       <c r="DM28" t="n" s="10">
-        <v>98.323</v>
+        <v>98.578</v>
       </c>
       <c r="DN28" t="n" s="10">
-        <v>95.646</v>
+        <v>95.758</v>
       </c>
       <c r="DO28" t="n" s="10">
-        <v>90.029</v>
+        <v>89.563</v>
       </c>
       <c r="DP28" t="n" s="10">
-        <v>46.149</v>
+        <v>46.055</v>
       </c>
       <c r="DQ28" t="n" s="10">
-        <v>67.54</v>
+        <v>67.944</v>
       </c>
       <c r="DR28" t="n" s="10">
-        <v>88.311</v>
+        <v>88.468</v>
       </c>
       <c r="DS28" t="n" s="10">
-        <v>97.914</v>
+        <v>97.34</v>
       </c>
       <c r="DT28" t="n" s="10">
-        <v>89.466</v>
+        <v>88.742</v>
       </c>
       <c r="DU28" t="n" s="10">
-        <v>89.139</v>
+        <v>87.128</v>
       </c>
       <c r="DV28" t="n" s="10">
-        <v>95.879</v>
+        <v>92.475</v>
+      </c>
+      <c r="DW28" t="n" s="10">
+        <v>85.905</v>
+      </c>
+      <c r="DX28" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY28" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ28" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="9">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" t="n" s="10">
         <v>-9.156</v>
@@ -11795,29 +12135,41 @@
         <v>75.266</v>
       </c>
       <c r="DS29" t="n" s="10">
-        <v>65.752</v>
+        <v>64.231</v>
       </c>
       <c r="DT29" t="n" s="10">
-        <v>60.849</v>
+        <v>60.822</v>
       </c>
       <c r="DU29" t="n" s="10">
-        <v>61.592</v>
+        <v>59.915</v>
       </c>
       <c r="DV29" t="n" s="10">
-        <v>59.921</v>
+        <v>57.28</v>
+      </c>
+      <c r="DW29" t="n" s="10">
+        <v>41.207</v>
+      </c>
+      <c r="DX29" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY29" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ29" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="30" ht="33.75" customHeight="true">
       <c r="A30" t="s" s="14">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31" t="n" s="10">
         <v>384.54</v>
@@ -12132,72 +12484,84 @@
         <v>791.944</v>
       </c>
       <c r="DC31" t="n" s="10">
-        <v>806.201</v>
+        <v>806.196</v>
       </c>
       <c r="DD31" t="n" s="10">
-        <v>808.4</v>
+        <v>808.378</v>
       </c>
       <c r="DE31" t="n" s="10">
-        <v>822.44</v>
+        <v>822.404</v>
       </c>
       <c r="DF31" t="n" s="10">
-        <v>829.379</v>
+        <v>829.486</v>
       </c>
       <c r="DG31" t="n" s="10">
-        <v>831.569</v>
+        <v>831.893</v>
       </c>
       <c r="DH31" t="n" s="10">
-        <v>842.924</v>
+        <v>842.813</v>
       </c>
       <c r="DI31" t="n" s="10">
-        <v>841.817</v>
+        <v>840.574</v>
       </c>
       <c r="DJ31" t="n" s="10">
-        <v>849.891</v>
+        <v>849.812</v>
       </c>
       <c r="DK31" t="n" s="10">
-        <v>859.421</v>
+        <v>862.29</v>
       </c>
       <c r="DL31" t="n" s="10">
-        <v>865.744</v>
+        <v>865.74</v>
       </c>
       <c r="DM31" t="n" s="10">
-        <v>874.801</v>
+        <v>870.958</v>
       </c>
       <c r="DN31" t="n" s="10">
-        <v>871.109</v>
+        <v>870.219</v>
       </c>
       <c r="DO31" t="n" s="10">
-        <v>868.223</v>
+        <v>873.271</v>
       </c>
       <c r="DP31" t="n" s="10">
-        <v>790.97</v>
+        <v>791.501</v>
       </c>
       <c r="DQ31" t="n" s="10">
-        <v>849.075</v>
+        <v>844.188</v>
       </c>
       <c r="DR31" t="n" s="10">
-        <v>857.844</v>
+        <v>855.901</v>
       </c>
       <c r="DS31" t="n" s="10">
-        <v>859.282</v>
+        <v>864.626</v>
       </c>
       <c r="DT31" t="n" s="10">
-        <v>882.946</v>
+        <v>884.026</v>
       </c>
       <c r="DU31" t="n" s="10">
-        <v>909.866</v>
+        <v>905.145</v>
       </c>
       <c r="DV31" t="n" s="10">
-        <v>918.754</v>
+        <v>916.605</v>
+      </c>
+      <c r="DW31" t="n" s="10">
+        <v>933.528</v>
+      </c>
+      <c r="DX31" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY31" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ31" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="9">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s" s="13">
         <v>43</v>
-      </c>
-      <c r="B32" t="s" s="13">
-        <v>42</v>
       </c>
       <c r="C32" t="n" s="10">
         <v>17.492</v>
@@ -12533,51 +12897,63 @@
         <v>58.955</v>
       </c>
       <c r="DJ32" t="n" s="10">
-        <v>60.501</v>
+        <v>60.502</v>
       </c>
       <c r="DK32" t="n" s="10">
-        <v>59.871</v>
+        <v>59.87</v>
       </c>
       <c r="DL32" t="n" s="10">
         <v>59.753</v>
       </c>
       <c r="DM32" t="n" s="10">
-        <v>57.267</v>
+        <v>57.276</v>
       </c>
       <c r="DN32" t="n" s="10">
-        <v>54.214</v>
+        <v>54.235</v>
       </c>
       <c r="DO32" t="n" s="10">
-        <v>51.27</v>
+        <v>51.234</v>
       </c>
       <c r="DP32" t="n" s="10">
-        <v>48.128</v>
+        <v>48.056</v>
       </c>
       <c r="DQ32" t="n" s="10">
-        <v>48.016</v>
+        <v>48.057</v>
       </c>
       <c r="DR32" t="n" s="10">
-        <v>48.611</v>
+        <v>48.949</v>
       </c>
       <c r="DS32" t="n" s="10">
-        <v>50.247</v>
+        <v>49.991</v>
       </c>
       <c r="DT32" t="n" s="10">
-        <v>52.299</v>
+        <v>52.245</v>
       </c>
       <c r="DU32" t="n" s="10">
-        <v>53.952</v>
+        <v>54.07</v>
       </c>
       <c r="DV32" t="n" s="10">
-        <v>54.959</v>
+        <v>55.627</v>
+      </c>
+      <c r="DW32" t="n" s="10">
+        <v>59.782</v>
+      </c>
+      <c r="DX32" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY32" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ32" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="9">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C33" t="n" s="10">
         <v>12.97</v>
@@ -12739,76 +13115,76 @@
         <v>32.406</v>
       </c>
       <c r="BD33" t="n" s="10">
-        <v>31.669</v>
+        <v>31.667</v>
       </c>
       <c r="BE33" t="n" s="10">
-        <v>31.985</v>
+        <v>31.98</v>
       </c>
       <c r="BF33" t="n" s="10">
-        <v>32.988</v>
+        <v>32.984</v>
       </c>
       <c r="BG33" t="n" s="10">
-        <v>35.553</v>
+        <v>35.601</v>
       </c>
       <c r="BH33" t="n" s="10">
-        <v>36.115</v>
+        <v>36.141</v>
       </c>
       <c r="BI33" t="n" s="10">
-        <v>38.071</v>
+        <v>37.966</v>
       </c>
       <c r="BJ33" t="n" s="10">
-        <v>39.304</v>
+        <v>39.046</v>
       </c>
       <c r="BK33" t="n" s="10">
-        <v>39.168</v>
+        <v>39.67</v>
       </c>
       <c r="BL33" t="n" s="10">
-        <v>40.731</v>
+        <v>40.865</v>
       </c>
       <c r="BM33" t="n" s="10">
-        <v>42.846</v>
+        <v>42.438</v>
       </c>
       <c r="BN33" t="n" s="10">
-        <v>46.301</v>
+        <v>45.735</v>
       </c>
       <c r="BO33" t="n" s="10">
-        <v>51.204</v>
+        <v>52.091</v>
       </c>
       <c r="BP33" t="n" s="10">
-        <v>55.55</v>
+        <v>55.753</v>
       </c>
       <c r="BQ33" t="n" s="10">
-        <v>52.675</v>
+        <v>52.157</v>
       </c>
       <c r="BR33" t="n" s="10">
-        <v>50.586</v>
+        <v>50.222</v>
       </c>
       <c r="BS33" t="n" s="10">
-        <v>47.778</v>
+        <v>48.28</v>
       </c>
       <c r="BT33" t="n" s="10">
-        <v>45.881</v>
+        <v>46.015</v>
       </c>
       <c r="BU33" t="n" s="10">
-        <v>41.511</v>
+        <v>41.297</v>
       </c>
       <c r="BV33" t="n" s="10">
-        <v>38.686</v>
+        <v>38.628</v>
       </c>
       <c r="BW33" t="n" s="10">
-        <v>34.294</v>
+        <v>34.343</v>
       </c>
       <c r="BX33" t="n" s="10">
-        <v>31.599</v>
+        <v>31.624</v>
       </c>
       <c r="BY33" t="n" s="10">
-        <v>31.145</v>
+        <v>31.14</v>
       </c>
       <c r="BZ33" t="n" s="10">
-        <v>31.777</v>
+        <v>31.773</v>
       </c>
       <c r="CA33" t="n" s="10">
-        <v>35.221</v>
+        <v>35.22</v>
       </c>
       <c r="CB33" t="n" s="10">
         <v>36.376</v>
@@ -12895,7 +13271,7 @@
         <v>33.278</v>
       </c>
       <c r="DD33" t="n" s="10">
-        <v>32.873</v>
+        <v>32.872</v>
       </c>
       <c r="DE33" t="n" s="10">
         <v>32.41</v>
@@ -12904,60 +13280,72 @@
         <v>31.893</v>
       </c>
       <c r="DG33" t="n" s="10">
-        <v>31.636</v>
+        <v>31.637</v>
       </c>
       <c r="DH33" t="n" s="10">
-        <v>32.41</v>
+        <v>32.405</v>
       </c>
       <c r="DI33" t="n" s="10">
-        <v>30.496</v>
+        <v>30.498</v>
       </c>
       <c r="DJ33" t="n" s="10">
-        <v>30.006</v>
+        <v>30.009</v>
       </c>
       <c r="DK33" t="n" s="10">
         <v>29.692</v>
       </c>
       <c r="DL33" t="n" s="10">
-        <v>33.115</v>
+        <v>33.105</v>
       </c>
       <c r="DM33" t="n" s="10">
-        <v>28.081</v>
+        <v>28.093</v>
       </c>
       <c r="DN33" t="n" s="10">
-        <v>27.09</v>
+        <v>27.119</v>
       </c>
       <c r="DO33" t="n" s="10">
-        <v>26.322</v>
+        <v>26.276</v>
       </c>
       <c r="DP33" t="n" s="10">
-        <v>23.951</v>
+        <v>23.904</v>
       </c>
       <c r="DQ33" t="n" s="10">
-        <v>26.018</v>
+        <v>26.043</v>
       </c>
       <c r="DR33" t="n" s="10">
-        <v>25.588</v>
+        <v>25.625</v>
       </c>
       <c r="DS33" t="n" s="10">
-        <v>24.978</v>
+        <v>25.228</v>
       </c>
       <c r="DT33" t="n" s="10">
-        <v>26.989</v>
+        <v>27.14</v>
       </c>
       <c r="DU33" t="n" s="10">
-        <v>25.485</v>
+        <v>25.715</v>
       </c>
       <c r="DV33" t="n" s="10">
-        <v>25.875</v>
+        <v>26.404</v>
+      </c>
+      <c r="DW33" t="n" s="10">
+        <v>26.801</v>
+      </c>
+      <c r="DX33" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY33" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ33" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C34" t="n" s="10">
         <v>389.062</v>
@@ -13119,76 +13507,76 @@
         <v>565.117</v>
       </c>
       <c r="BD34" t="n" s="10">
-        <v>568.552</v>
+        <v>568.554</v>
       </c>
       <c r="BE34" t="n" s="10">
-        <v>569.429</v>
+        <v>569.434</v>
       </c>
       <c r="BF34" t="n" s="10">
-        <v>573.278</v>
+        <v>573.282</v>
       </c>
       <c r="BG34" t="n" s="10">
-        <v>568.182</v>
+        <v>568.134</v>
       </c>
       <c r="BH34" t="n" s="10">
-        <v>576.287</v>
+        <v>576.261</v>
       </c>
       <c r="BI34" t="n" s="10">
-        <v>579.736</v>
+        <v>579.841</v>
       </c>
       <c r="BJ34" t="n" s="10">
-        <v>583.554</v>
+        <v>583.812</v>
       </c>
       <c r="BK34" t="n" s="10">
-        <v>594.169</v>
+        <v>593.667</v>
       </c>
       <c r="BL34" t="n" s="10">
-        <v>601.604</v>
+        <v>601.47</v>
       </c>
       <c r="BM34" t="n" s="10">
-        <v>609.565</v>
+        <v>609.973</v>
       </c>
       <c r="BN34" t="n" s="10">
-        <v>620.603</v>
+        <v>621.169</v>
       </c>
       <c r="BO34" t="n" s="10">
-        <v>627.719</v>
+        <v>626.832</v>
       </c>
       <c r="BP34" t="n" s="10">
-        <v>627.164</v>
+        <v>626.961</v>
       </c>
       <c r="BQ34" t="n" s="10">
-        <v>635.977</v>
+        <v>636.495</v>
       </c>
       <c r="BR34" t="n" s="10">
-        <v>643.171</v>
+        <v>643.535</v>
       </c>
       <c r="BS34" t="n" s="10">
-        <v>644.273</v>
+        <v>643.771</v>
       </c>
       <c r="BT34" t="n" s="10">
-        <v>649.04</v>
+        <v>648.906</v>
       </c>
       <c r="BU34" t="n" s="10">
-        <v>642.324</v>
+        <v>642.538</v>
       </c>
       <c r="BV34" t="n" s="10">
-        <v>632.476</v>
+        <v>632.534</v>
       </c>
       <c r="BW34" t="n" s="10">
-        <v>620.726</v>
+        <v>620.677</v>
       </c>
       <c r="BX34" t="n" s="10">
-        <v>619.529</v>
+        <v>619.504</v>
       </c>
       <c r="BY34" t="n" s="10">
-        <v>626.992</v>
+        <v>626.997</v>
       </c>
       <c r="BZ34" t="n" s="10">
-        <v>634.065</v>
+        <v>634.069</v>
       </c>
       <c r="CA34" t="n" s="10">
-        <v>640.657</v>
+        <v>640.658</v>
       </c>
       <c r="CB34" t="n" s="10">
         <v>650.828</v>
@@ -13272,72 +13660,84 @@
         <v>811.833</v>
       </c>
       <c r="DC34" t="n" s="10">
-        <v>824.42</v>
+        <v>824.415</v>
       </c>
       <c r="DD34" t="n" s="10">
-        <v>827.178</v>
+        <v>827.157</v>
       </c>
       <c r="DE34" t="n" s="10">
-        <v>842.403</v>
+        <v>842.367</v>
       </c>
       <c r="DF34" t="n" s="10">
-        <v>850.16</v>
+        <v>850.267</v>
       </c>
       <c r="DG34" t="n" s="10">
-        <v>855.725</v>
+        <v>856.048</v>
       </c>
       <c r="DH34" t="n" s="10">
-        <v>868.24</v>
+        <v>868.134</v>
       </c>
       <c r="DI34" t="n" s="10">
-        <v>870.276</v>
+        <v>869.031</v>
       </c>
       <c r="DJ34" t="n" s="10">
-        <v>880.386</v>
+        <v>880.305</v>
       </c>
       <c r="DK34" t="n" s="10">
-        <v>889.6</v>
+        <v>892.468</v>
       </c>
       <c r="DL34" t="n" s="10">
-        <v>892.382</v>
+        <v>892.388</v>
       </c>
       <c r="DM34" t="n" s="10">
-        <v>903.987</v>
+        <v>900.141</v>
       </c>
       <c r="DN34" t="n" s="10">
-        <v>898.233</v>
+        <v>897.335</v>
       </c>
       <c r="DO34" t="n" s="10">
-        <v>893.171</v>
+        <v>898.229</v>
       </c>
       <c r="DP34" t="n" s="10">
-        <v>815.147</v>
+        <v>815.653</v>
       </c>
       <c r="DQ34" t="n" s="10">
-        <v>871.073</v>
+        <v>866.202</v>
       </c>
       <c r="DR34" t="n" s="10">
-        <v>880.867</v>
+        <v>879.225</v>
       </c>
       <c r="DS34" t="n" s="10">
-        <v>884.551</v>
+        <v>889.389</v>
       </c>
       <c r="DT34" t="n" s="10">
-        <v>908.256</v>
+        <v>909.131</v>
       </c>
       <c r="DU34" t="n" s="10">
-        <v>938.333</v>
+        <v>933.5</v>
       </c>
       <c r="DV34" t="n" s="10">
-        <v>947.838</v>
+        <v>945.828</v>
+      </c>
+      <c r="DW34" t="n" s="10">
+        <v>966.509</v>
+      </c>
+      <c r="DX34" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY34" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ34" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="9">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C35" t="n" s="10">
         <v>59.62</v>
@@ -13673,51 +14073,63 @@
         <v>153.537</v>
       </c>
       <c r="DJ35" t="n" s="10">
-        <v>155.456</v>
+        <v>155.457</v>
       </c>
       <c r="DK35" t="n" s="10">
-        <v>157.284</v>
+        <v>157.289</v>
       </c>
       <c r="DL35" t="n" s="10">
-        <v>158.828</v>
+        <v>158.836</v>
       </c>
       <c r="DM35" t="n" s="10">
-        <v>160.727</v>
+        <v>160.703</v>
       </c>
       <c r="DN35" t="n" s="10">
-        <v>162.371</v>
+        <v>162.319</v>
       </c>
       <c r="DO35" t="n" s="10">
-        <v>163.55</v>
+        <v>163.571</v>
       </c>
       <c r="DP35" t="n" s="10">
-        <v>164.286</v>
+        <v>164.508</v>
       </c>
       <c r="DQ35" t="n" s="10">
-        <v>164.824</v>
+        <v>164.71</v>
       </c>
       <c r="DR35" t="n" s="10">
-        <v>165.901</v>
+        <v>165.7</v>
       </c>
       <c r="DS35" t="n" s="10">
-        <v>167.668</v>
+        <v>167.829</v>
       </c>
       <c r="DT35" t="n" s="10">
-        <v>170.22</v>
+        <v>170.69</v>
       </c>
       <c r="DU35" t="n" s="10">
-        <v>176.712</v>
+        <v>176.617</v>
       </c>
       <c r="DV35" t="n" s="10">
-        <v>179.425</v>
+        <v>179.06</v>
+      </c>
+      <c r="DW35" t="n" s="10">
+        <v>183.279</v>
+      </c>
+      <c r="DX35" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY35" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ35" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="9">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C36" t="n" s="10">
         <v>329.442</v>
@@ -13879,76 +14291,76 @@
         <v>469.239</v>
       </c>
       <c r="BD36" t="n" s="10">
-        <v>472.065</v>
+        <v>472.067</v>
       </c>
       <c r="BE36" t="n" s="10">
-        <v>472.457</v>
+        <v>472.462</v>
       </c>
       <c r="BF36" t="n" s="10">
-        <v>475.889</v>
+        <v>475.893</v>
       </c>
       <c r="BG36" t="n" s="10">
-        <v>470.414</v>
+        <v>470.366</v>
       </c>
       <c r="BH36" t="n" s="10">
-        <v>478.26</v>
+        <v>478.234</v>
       </c>
       <c r="BI36" t="n" s="10">
-        <v>481.305</v>
+        <v>481.41</v>
       </c>
       <c r="BJ36" t="n" s="10">
-        <v>484.531</v>
+        <v>484.789</v>
       </c>
       <c r="BK36" t="n" s="10">
-        <v>494.861</v>
+        <v>494.359</v>
       </c>
       <c r="BL36" t="n" s="10">
-        <v>501.475</v>
+        <v>501.341</v>
       </c>
       <c r="BM36" t="n" s="10">
-        <v>508.307</v>
+        <v>508.715</v>
       </c>
       <c r="BN36" t="n" s="10">
-        <v>518.141</v>
+        <v>518.707</v>
       </c>
       <c r="BO36" t="n" s="10">
-        <v>523.463</v>
+        <v>522.576</v>
       </c>
       <c r="BP36" t="n" s="10">
-        <v>521.843</v>
+        <v>521.64</v>
       </c>
       <c r="BQ36" t="n" s="10">
-        <v>529.719</v>
+        <v>530.237</v>
       </c>
       <c r="BR36" t="n" s="10">
-        <v>535.755</v>
+        <v>536.119</v>
       </c>
       <c r="BS36" t="n" s="10">
-        <v>535.827</v>
+        <v>535.325</v>
       </c>
       <c r="BT36" t="n" s="10">
-        <v>539.258</v>
+        <v>539.124</v>
       </c>
       <c r="BU36" t="n" s="10">
-        <v>531.327</v>
+        <v>531.541</v>
       </c>
       <c r="BV36" t="n" s="10">
-        <v>520.872</v>
+        <v>520.93</v>
       </c>
       <c r="BW36" t="n" s="10">
-        <v>508.48</v>
+        <v>508.431</v>
       </c>
       <c r="BX36" t="n" s="10">
-        <v>506.872</v>
+        <v>506.847</v>
       </c>
       <c r="BY36" t="n" s="10">
-        <v>513.842</v>
+        <v>513.847</v>
       </c>
       <c r="BZ36" t="n" s="10">
-        <v>520.084</v>
+        <v>520.088</v>
       </c>
       <c r="CA36" t="n" s="10">
-        <v>526.304</v>
+        <v>526.305</v>
       </c>
       <c r="CB36" t="n" s="10">
         <v>535.713</v>
@@ -14032,72 +14444,84 @@
         <v>670.32</v>
       </c>
       <c r="DC36" t="n" s="10">
-        <v>681.394</v>
+        <v>681.389</v>
       </c>
       <c r="DD36" t="n" s="10">
-        <v>682.634</v>
+        <v>682.613</v>
       </c>
       <c r="DE36" t="n" s="10">
-        <v>696.358</v>
+        <v>696.322</v>
       </c>
       <c r="DF36" t="n" s="10">
-        <v>702.351</v>
+        <v>702.458</v>
       </c>
       <c r="DG36" t="n" s="10">
-        <v>706.154</v>
+        <v>706.477</v>
       </c>
       <c r="DH36" t="n" s="10">
-        <v>716.827</v>
+        <v>716.721</v>
       </c>
       <c r="DI36" t="n" s="10">
-        <v>716.739</v>
+        <v>715.494</v>
       </c>
       <c r="DJ36" t="n" s="10">
-        <v>724.93</v>
+        <v>724.848</v>
       </c>
       <c r="DK36" t="n" s="10">
-        <v>732.316</v>
+        <v>735.179</v>
       </c>
       <c r="DL36" t="n" s="10">
-        <v>733.554</v>
+        <v>733.552</v>
       </c>
       <c r="DM36" t="n" s="10">
-        <v>743.26</v>
+        <v>739.438</v>
       </c>
       <c r="DN36" t="n" s="10">
-        <v>735.862</v>
+        <v>735.016</v>
       </c>
       <c r="DO36" t="n" s="10">
-        <v>729.621</v>
+        <v>734.658</v>
       </c>
       <c r="DP36" t="n" s="10">
-        <v>650.861</v>
+        <v>651.145</v>
       </c>
       <c r="DQ36" t="n" s="10">
-        <v>706.249</v>
+        <v>701.492</v>
       </c>
       <c r="DR36" t="n" s="10">
-        <v>714.966</v>
+        <v>713.525</v>
       </c>
       <c r="DS36" t="n" s="10">
-        <v>716.883</v>
+        <v>721.56</v>
       </c>
       <c r="DT36" t="n" s="10">
-        <v>738.036</v>
+        <v>738.441</v>
       </c>
       <c r="DU36" t="n" s="10">
-        <v>761.621</v>
+        <v>756.883</v>
       </c>
       <c r="DV36" t="n" s="10">
-        <v>768.413</v>
+        <v>766.768</v>
+      </c>
+      <c r="DW36" t="n" s="10">
+        <v>783.23</v>
+      </c>
+      <c r="DX36" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY36" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ36" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="9">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C37" t="n" s="10">
         <v>3.389</v>
@@ -14427,57 +14851,69 @@
         <v>17.374</v>
       </c>
       <c r="DH37" t="n" s="10">
-        <v>17.781</v>
+        <v>17.78</v>
       </c>
       <c r="DI37" t="n" s="10">
-        <v>17.772</v>
+        <v>17.771</v>
       </c>
       <c r="DJ37" t="n" s="10">
-        <v>18.12</v>
+        <v>18.119</v>
       </c>
       <c r="DK37" t="n" s="10">
-        <v>18.334</v>
+        <v>18.34</v>
       </c>
       <c r="DL37" t="n" s="10">
-        <v>19.015</v>
+        <v>19.017</v>
       </c>
       <c r="DM37" t="n" s="10">
-        <v>18.367</v>
+        <v>18.359</v>
       </c>
       <c r="DN37" t="n" s="10">
-        <v>18.561</v>
+        <v>18.526</v>
       </c>
       <c r="DO37" t="n" s="10">
-        <v>18.118</v>
+        <v>18.197</v>
       </c>
       <c r="DP37" t="n" s="10">
-        <v>17.521</v>
+        <v>17.488</v>
       </c>
       <c r="DQ37" t="n" s="10">
-        <v>18.717</v>
+        <v>18.731</v>
       </c>
       <c r="DR37" t="n" s="10">
-        <v>18.543</v>
+        <v>18.379</v>
       </c>
       <c r="DS37" t="n" s="10">
-        <v>19.406</v>
+        <v>19.064</v>
       </c>
       <c r="DT37" t="n" s="10">
-        <v>19.626</v>
+        <v>19.208</v>
       </c>
       <c r="DU37" t="n" s="10">
-        <v>19.945</v>
+        <v>18.883</v>
       </c>
       <c r="DV37" t="n" s="10">
-        <v>21.025</v>
+        <v>19.566</v>
+      </c>
+      <c r="DW37" t="n" s="10">
+        <v>18.72</v>
+      </c>
+      <c r="DX37" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY37" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ37" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="9">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C38" t="n" s="10">
         <v>13.94</v>
@@ -14816,48 +15252,60 @@
         <v>29.802</v>
       </c>
       <c r="DK38" t="n" s="10">
-        <v>29.047</v>
+        <v>29.046</v>
       </c>
       <c r="DL38" t="n" s="10">
-        <v>29.818</v>
+        <v>29.817</v>
       </c>
       <c r="DM38" t="n" s="10">
-        <v>29.439</v>
+        <v>29.436</v>
       </c>
       <c r="DN38" t="n" s="10">
-        <v>29.483</v>
+        <v>29.475</v>
       </c>
       <c r="DO38" t="n" s="10">
-        <v>30.194</v>
+        <v>30.201</v>
       </c>
       <c r="DP38" t="n" s="10">
-        <v>29.897</v>
+        <v>29.918</v>
       </c>
       <c r="DQ38" t="n" s="10">
-        <v>30.446</v>
+        <v>30.383</v>
       </c>
       <c r="DR38" t="n" s="10">
-        <v>30.499</v>
+        <v>30.421</v>
       </c>
       <c r="DS38" t="n" s="10">
-        <v>30.517</v>
+        <v>30.665</v>
       </c>
       <c r="DT38" t="n" s="10">
-        <v>31.324</v>
+        <v>31.367</v>
       </c>
       <c r="DU38" t="n" s="10">
-        <v>32.53</v>
+        <v>32.386</v>
       </c>
       <c r="DV38" t="n" s="10">
-        <v>33.261</v>
+        <v>33.132</v>
+      </c>
+      <c r="DW38" t="n" s="10">
+        <v>33.257</v>
+      </c>
+      <c r="DX38" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY38" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ38" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="9">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C39" t="n" s="10">
         <v>318.891</v>
@@ -15019,76 +15467,76 @@
         <v>462.266</v>
       </c>
       <c r="BD39" t="n" s="10">
-        <v>464.748</v>
+        <v>464.75</v>
       </c>
       <c r="BE39" t="n" s="10">
-        <v>465.113</v>
+        <v>465.118</v>
       </c>
       <c r="BF39" t="n" s="10">
-        <v>468.858</v>
+        <v>468.862</v>
       </c>
       <c r="BG39" t="n" s="10">
-        <v>462.15</v>
+        <v>462.102</v>
       </c>
       <c r="BH39" t="n" s="10">
-        <v>470.816</v>
+        <v>470.79</v>
       </c>
       <c r="BI39" t="n" s="10">
-        <v>474.139</v>
+        <v>474.244</v>
       </c>
       <c r="BJ39" t="n" s="10">
-        <v>477.506</v>
+        <v>477.764</v>
       </c>
       <c r="BK39" t="n" s="10">
-        <v>488.219</v>
+        <v>487.717</v>
       </c>
       <c r="BL39" t="n" s="10">
-        <v>494.266</v>
+        <v>494.132</v>
       </c>
       <c r="BM39" t="n" s="10">
-        <v>500.607</v>
+        <v>501.015</v>
       </c>
       <c r="BN39" t="n" s="10">
-        <v>510.689</v>
+        <v>511.255</v>
       </c>
       <c r="BO39" t="n" s="10">
-        <v>516.066</v>
+        <v>515.179</v>
       </c>
       <c r="BP39" t="n" s="10">
-        <v>514.305</v>
+        <v>514.102</v>
       </c>
       <c r="BQ39" t="n" s="10">
-        <v>521.568</v>
+        <v>522.086</v>
       </c>
       <c r="BR39" t="n" s="10">
-        <v>527.574</v>
+        <v>527.938</v>
       </c>
       <c r="BS39" t="n" s="10">
-        <v>526.997</v>
+        <v>526.495</v>
       </c>
       <c r="BT39" t="n" s="10">
-        <v>530.413</v>
+        <v>530.279</v>
       </c>
       <c r="BU39" t="n" s="10">
-        <v>523.029</v>
+        <v>523.243</v>
       </c>
       <c r="BV39" t="n" s="10">
-        <v>512.445</v>
+        <v>512.503</v>
       </c>
       <c r="BW39" t="n" s="10">
-        <v>499.804</v>
+        <v>499.755</v>
       </c>
       <c r="BX39" t="n" s="10">
-        <v>500.122</v>
+        <v>500.097</v>
       </c>
       <c r="BY39" t="n" s="10">
-        <v>506.36</v>
+        <v>506.365</v>
       </c>
       <c r="BZ39" t="n" s="10">
-        <v>510.759</v>
+        <v>510.763</v>
       </c>
       <c r="CA39" t="n" s="10">
-        <v>517.314</v>
+        <v>517.315</v>
       </c>
       <c r="CB39" t="n" s="10">
         <v>526.034</v>
@@ -15172,72 +15620,84 @@
         <v>661.391</v>
       </c>
       <c r="DC39" t="n" s="10">
-        <v>669.774</v>
+        <v>669.769</v>
       </c>
       <c r="DD39" t="n" s="10">
-        <v>669.872</v>
+        <v>669.851</v>
       </c>
       <c r="DE39" t="n" s="10">
-        <v>686.723</v>
+        <v>686.687</v>
       </c>
       <c r="DF39" t="n" s="10">
-        <v>690.904</v>
+        <v>691.011</v>
       </c>
       <c r="DG39" t="n" s="10">
-        <v>695.989</v>
+        <v>696.312</v>
       </c>
       <c r="DH39" t="n" s="10">
-        <v>707.156</v>
+        <v>707.049</v>
       </c>
       <c r="DI39" t="n" s="10">
-        <v>704.86</v>
+        <v>703.614</v>
       </c>
       <c r="DJ39" t="n" s="10">
-        <v>713.248</v>
+        <v>713.165</v>
       </c>
       <c r="DK39" t="n" s="10">
-        <v>721.603</v>
+        <v>724.473</v>
       </c>
       <c r="DL39" t="n" s="10">
-        <v>722.751</v>
+        <v>722.752</v>
       </c>
       <c r="DM39" t="n" s="10">
-        <v>732.188</v>
+        <v>728.361</v>
       </c>
       <c r="DN39" t="n" s="10">
-        <v>724.94</v>
+        <v>724.067</v>
       </c>
       <c r="DO39" t="n" s="10">
-        <v>717.545</v>
+        <v>722.654</v>
       </c>
       <c r="DP39" t="n" s="10">
-        <v>638.485</v>
+        <v>638.715</v>
       </c>
       <c r="DQ39" t="n" s="10">
-        <v>694.52</v>
+        <v>689.84</v>
       </c>
       <c r="DR39" t="n" s="10">
-        <v>703.01</v>
+        <v>701.483</v>
       </c>
       <c r="DS39" t="n" s="10">
-        <v>705.772</v>
+        <v>709.959</v>
       </c>
       <c r="DT39" t="n" s="10">
-        <v>726.338</v>
+        <v>726.282</v>
       </c>
       <c r="DU39" t="n" s="10">
-        <v>749.036</v>
+        <v>743.38</v>
       </c>
       <c r="DV39" t="n" s="10">
-        <v>756.177</v>
+        <v>753.202</v>
+      </c>
+      <c r="DW39" t="n" s="10">
+        <v>768.693</v>
+      </c>
+      <c r="DX39" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY39" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ39" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="9">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C40" t="n" s="10">
         <v>31.59</v>
@@ -15399,76 +15859,76 @@
         <v>39.482</v>
       </c>
       <c r="BD40" t="n" s="10">
-        <v>41.575</v>
+        <v>41.577</v>
       </c>
       <c r="BE40" t="n" s="10">
-        <v>41.282</v>
+        <v>41.287</v>
       </c>
       <c r="BF40" t="n" s="10">
-        <v>42.059</v>
+        <v>42.063</v>
       </c>
       <c r="BG40" t="n" s="10">
-        <v>35.124</v>
+        <v>35.076</v>
       </c>
       <c r="BH40" t="n" s="10">
-        <v>39.828</v>
+        <v>39.802</v>
       </c>
       <c r="BI40" t="n" s="10">
-        <v>41.604</v>
+        <v>41.709</v>
       </c>
       <c r="BJ40" t="n" s="10">
-        <v>44.359</v>
+        <v>44.617</v>
       </c>
       <c r="BK40" t="n" s="10">
-        <v>49.574</v>
+        <v>49.072</v>
       </c>
       <c r="BL40" t="n" s="10">
-        <v>54.847</v>
+        <v>54.713</v>
       </c>
       <c r="BM40" t="n" s="10">
-        <v>59.04</v>
+        <v>59.448</v>
       </c>
       <c r="BN40" t="n" s="10">
-        <v>65.187</v>
+        <v>65.753</v>
       </c>
       <c r="BO40" t="n" s="10">
-        <v>71.233</v>
+        <v>70.346</v>
       </c>
       <c r="BP40" t="n" s="10">
-        <v>67.235</v>
+        <v>67.032</v>
       </c>
       <c r="BQ40" t="n" s="10">
-        <v>71.251</v>
+        <v>71.769</v>
       </c>
       <c r="BR40" t="n" s="10">
-        <v>73.197</v>
+        <v>73.561</v>
       </c>
       <c r="BS40" t="n" s="10">
-        <v>69.413</v>
+        <v>68.911</v>
       </c>
       <c r="BT40" t="n" s="10">
-        <v>68.505</v>
+        <v>68.371</v>
       </c>
       <c r="BU40" t="n" s="10">
-        <v>59.415</v>
+        <v>59.629</v>
       </c>
       <c r="BV40" t="n" s="10">
-        <v>48.567</v>
+        <v>48.625</v>
       </c>
       <c r="BW40" t="n" s="10">
-        <v>33.572</v>
+        <v>33.523</v>
       </c>
       <c r="BX40" t="n" s="10">
-        <v>33.232</v>
+        <v>33.207</v>
       </c>
       <c r="BY40" t="n" s="10">
-        <v>38.801</v>
+        <v>38.806</v>
       </c>
       <c r="BZ40" t="n" s="10">
-        <v>41.809</v>
+        <v>41.813</v>
       </c>
       <c r="CA40" t="n" s="10">
-        <v>44.679</v>
+        <v>44.68</v>
       </c>
       <c r="CB40" t="n" s="10">
         <v>50.542</v>
@@ -15552,460 +16012,484 @@
         <v>85.168</v>
       </c>
       <c r="DC40" t="n" s="10">
-        <v>88.871</v>
+        <v>88.868</v>
       </c>
       <c r="DD40" t="n" s="10">
-        <v>85.439</v>
+        <v>85.428</v>
       </c>
       <c r="DE40" t="n" s="10">
-        <v>95.847</v>
+        <v>95.833</v>
       </c>
       <c r="DF40" t="n" s="10">
-        <v>96.279</v>
+        <v>96.364</v>
       </c>
       <c r="DG40" t="n" s="10">
-        <v>96.189</v>
+        <v>96.335</v>
       </c>
       <c r="DH40" t="n" s="10">
-        <v>103.632</v>
+        <v>103.463</v>
       </c>
       <c r="DI40" t="n" s="10">
-        <v>99.023</v>
+        <v>98.274</v>
       </c>
       <c r="DJ40" t="n" s="10">
-        <v>100.577</v>
+        <v>101.085</v>
       </c>
       <c r="DK40" t="n" s="10">
-        <v>102.511</v>
+        <v>104.008</v>
       </c>
       <c r="DL40" t="n" s="10">
-        <v>98.206</v>
+        <v>97.549</v>
       </c>
       <c r="DM40" t="n" s="10">
-        <v>101.836</v>
+        <v>99.134</v>
       </c>
       <c r="DN40" t="n" s="10">
-        <v>92.248</v>
+        <v>93.793</v>
       </c>
       <c r="DO40" t="n" s="10">
-        <v>83.465</v>
+        <v>86.094</v>
       </c>
       <c r="DP40" t="n" s="10">
-        <v>56.089</v>
+        <v>54.685</v>
       </c>
       <c r="DQ40" t="n" s="10">
-        <v>70.343</v>
+        <v>67.118</v>
       </c>
       <c r="DR40" t="n" s="10">
-        <v>82.4</v>
+        <v>84.015</v>
       </c>
       <c r="DS40" t="n" s="10">
-        <v>90.519</v>
+        <v>93.043</v>
       </c>
       <c r="DT40" t="n" s="10">
-        <v>99.572</v>
+        <v>97.129</v>
       </c>
       <c r="DU40" t="n" s="10">
-        <v>91.117</v>
+        <v>85.884</v>
       </c>
       <c r="DV40" t="n" s="10">
-        <v>93.009</v>
+        <v>90.128</v>
+      </c>
+      <c r="DW40" t="n" s="10">
+        <v>82.752</v>
+      </c>
+      <c r="DX40" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY40" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ40" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="9">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41" t="n" s="10">
-        <v>-10.071</v>
+        <v>-10.007</v>
       </c>
       <c r="D41" t="n" s="10">
-        <v>-7.339</v>
+        <v>-7.346</v>
       </c>
       <c r="E41" t="n" s="10">
-        <v>-6.104</v>
+        <v>-6.097</v>
       </c>
       <c r="F41" t="n" s="10">
-        <v>-4.84</v>
+        <v>-4.794</v>
       </c>
       <c r="G41" t="n" s="10">
-        <v>-5.693</v>
+        <v>-5.708</v>
       </c>
       <c r="H41" t="n" s="10">
-        <v>-5.94</v>
+        <v>-5.913</v>
       </c>
       <c r="I41" t="n" s="10">
-        <v>-3.617</v>
+        <v>-3.618</v>
       </c>
       <c r="J41" t="n" s="10">
-        <v>-6.092</v>
+        <v>-6.106</v>
       </c>
       <c r="K41" t="n" s="10">
-        <v>-3.559</v>
+        <v>-3.541</v>
       </c>
       <c r="L41" t="n" s="10">
-        <v>-4.473</v>
+        <v>-4.49</v>
       </c>
       <c r="M41" t="n" s="10">
-        <v>-5.857</v>
+        <v>-5.869</v>
       </c>
       <c r="N41" t="n" s="10">
-        <v>-2.842</v>
+        <v>-2.891</v>
       </c>
       <c r="O41" t="n" s="10">
-        <v>-6.723</v>
+        <v>-6.735</v>
       </c>
       <c r="P41" t="n" s="10">
-        <v>-5.569</v>
+        <v>-5.587</v>
       </c>
       <c r="Q41" t="n" s="10">
-        <v>-6.931</v>
+        <v>-6.947</v>
       </c>
       <c r="R41" t="n" s="10">
-        <v>-9.081</v>
+        <v>-9.066</v>
       </c>
       <c r="S41" t="n" s="10">
-        <v>-6.47</v>
+        <v>-6.496</v>
       </c>
       <c r="T41" t="n" s="10">
-        <v>-7.443</v>
+        <v>-7.43</v>
       </c>
       <c r="U41" t="n" s="10">
-        <v>-7.18</v>
+        <v>-7.151</v>
       </c>
       <c r="V41" t="n" s="10">
-        <v>-6.497</v>
+        <v>-6.486</v>
       </c>
       <c r="W41" t="n" s="10">
-        <v>-3.843</v>
+        <v>-3.854</v>
       </c>
       <c r="X41" t="n" s="10">
-        <v>-5.759</v>
+        <v>-5.73</v>
       </c>
       <c r="Y41" t="n" s="10">
-        <v>-4.628</v>
+        <v>-4.623</v>
       </c>
       <c r="Z41" t="n" s="10">
-        <v>-4.146</v>
+        <v>-4.126</v>
       </c>
       <c r="AA41" t="n" s="10">
-        <v>-7.105</v>
+        <v>-7.037</v>
       </c>
       <c r="AB41" t="n" s="10">
-        <v>-2.265</v>
+        <v>-2.296</v>
       </c>
       <c r="AC41" t="n" s="10">
-        <v>-1.868</v>
+        <v>-1.863</v>
       </c>
       <c r="AD41" t="n" s="10">
-        <v>-1.69</v>
+        <v>-1.66</v>
       </c>
       <c r="AE41" t="n" s="10">
-        <v>-1.732</v>
+        <v>-1.741</v>
       </c>
       <c r="AF41" t="n" s="10">
-        <v>-4.157</v>
+        <v>-4.125</v>
       </c>
       <c r="AG41" t="n" s="10">
-        <v>-3.354</v>
+        <v>-3.365</v>
       </c>
       <c r="AH41" t="n" s="10">
-        <v>-4.673</v>
+        <v>-4.698</v>
       </c>
       <c r="AI41" t="n" s="10">
-        <v>-8.059</v>
+        <v>-8.05</v>
       </c>
       <c r="AJ41" t="n" s="10">
-        <v>-5.86</v>
+        <v>-5.89</v>
       </c>
       <c r="AK41" t="n" s="10">
-        <v>-7.291</v>
+        <v>-7.317</v>
       </c>
       <c r="AL41" t="n" s="10">
-        <v>-4.375</v>
+        <v>-4.437</v>
       </c>
       <c r="AM41" t="n" s="10">
-        <v>-6.445</v>
+        <v>-6.494</v>
       </c>
       <c r="AN41" t="n" s="10">
-        <v>-10.139</v>
+        <v>-10.133</v>
       </c>
       <c r="AO41" t="n" s="10">
-        <v>-12.544</v>
+        <v>-12.531</v>
       </c>
       <c r="AP41" t="n" s="10">
-        <v>-10.971</v>
+        <v>-10.934</v>
       </c>
       <c r="AQ41" t="n" s="10">
-        <v>-8.956</v>
+        <v>-8.962</v>
       </c>
       <c r="AR41" t="n" s="10">
-        <v>-6.407</v>
+        <v>-6.386</v>
       </c>
       <c r="AS41" t="n" s="10">
-        <v>-4.097</v>
+        <v>-4.068</v>
       </c>
       <c r="AT41" t="n" s="10">
-        <v>5.019</v>
+        <v>5.043</v>
       </c>
       <c r="AU41" t="n" s="10">
-        <v>4.925</v>
+        <v>4.978</v>
       </c>
       <c r="AV41" t="n" s="10">
-        <v>9.083</v>
+        <v>9.078</v>
       </c>
       <c r="AW41" t="n" s="10">
-        <v>12.589</v>
+        <v>12.593</v>
       </c>
       <c r="AX41" t="n" s="10">
-        <v>8.489</v>
+        <v>8.506</v>
       </c>
       <c r="AY41" t="n" s="10">
-        <v>3.867</v>
+        <v>3.879</v>
       </c>
       <c r="AZ41" t="n" s="10">
-        <v>3.697</v>
+        <v>3.725</v>
       </c>
       <c r="BA41" t="n" s="10">
         <v>9.564</v>
       </c>
       <c r="BB41" t="n" s="10">
-        <v>19.767</v>
+        <v>19.796</v>
       </c>
       <c r="BC41" t="n" s="10">
-        <v>23.525</v>
+        <v>23.488</v>
       </c>
       <c r="BD41" t="n" s="10">
         <v>27.093</v>
       </c>
       <c r="BE41" t="n" s="10">
-        <v>24.848</v>
+        <v>24.836</v>
       </c>
       <c r="BF41" t="n" s="10">
-        <v>28.797</v>
+        <v>28.729</v>
       </c>
       <c r="BG41" t="n" s="10">
-        <v>24.754</v>
+        <v>24.738</v>
       </c>
       <c r="BH41" t="n" s="10">
-        <v>27.016</v>
+        <v>26.92</v>
       </c>
       <c r="BI41" t="n" s="10">
-        <v>28.032</v>
+        <v>28.108</v>
       </c>
       <c r="BJ41" t="n" s="10">
-        <v>25.502</v>
+        <v>25.757</v>
       </c>
       <c r="BK41" t="n" s="10">
-        <v>29.731</v>
+        <v>29.19</v>
       </c>
       <c r="BL41" t="n" s="10">
-        <v>31.123</v>
+        <v>31.022</v>
       </c>
       <c r="BM41" t="n" s="10">
-        <v>34.622</v>
+        <v>34.886</v>
       </c>
       <c r="BN41" t="n" s="10">
-        <v>42.101</v>
+        <v>42.735</v>
       </c>
       <c r="BO41" t="n" s="10">
-        <v>41.793</v>
+        <v>41.225</v>
       </c>
       <c r="BP41" t="n" s="10">
-        <v>38.718</v>
+        <v>39.091</v>
       </c>
       <c r="BQ41" t="n" s="10">
-        <v>45.773</v>
+        <v>44.197</v>
       </c>
       <c r="BR41" t="n" s="10">
-        <v>45.087</v>
+        <v>46.678</v>
       </c>
       <c r="BS41" t="n" s="10">
-        <v>38.338</v>
+        <v>38.626</v>
       </c>
       <c r="BT41" t="n" s="10">
-        <v>38.137</v>
+        <v>38.934</v>
       </c>
       <c r="BU41" t="n" s="10">
-        <v>34.997</v>
+        <v>31.329</v>
       </c>
       <c r="BV41" t="n" s="10">
-        <v>28.399</v>
+        <v>30.796</v>
       </c>
       <c r="BW41" t="n" s="10">
-        <v>25.199</v>
+        <v>25.707</v>
       </c>
       <c r="BX41" t="n" s="10">
-        <v>32.686</v>
+        <v>33.056</v>
       </c>
       <c r="BY41" t="n" s="10">
-        <v>41.242</v>
+        <v>39.114</v>
       </c>
       <c r="BZ41" t="n" s="10">
-        <v>41.226</v>
+        <v>42.415</v>
       </c>
       <c r="CA41" t="n" s="10">
-        <v>36.671</v>
+        <v>36.811</v>
       </c>
       <c r="CB41" t="n" s="10">
-        <v>36.793</v>
+        <v>36.674</v>
       </c>
       <c r="CC41" t="n" s="10">
-        <v>36.264</v>
+        <v>36.087</v>
       </c>
       <c r="CD41" t="n" s="10">
-        <v>41.671</v>
+        <v>41.666</v>
       </c>
       <c r="CE41" t="n" s="10">
-        <v>41.664</v>
+        <v>41.651</v>
       </c>
       <c r="CF41" t="n" s="10">
-        <v>38.835</v>
+        <v>38.811</v>
       </c>
       <c r="CG41" t="n" s="10">
-        <v>41.851</v>
+        <v>41.829</v>
       </c>
       <c r="CH41" t="n" s="10">
-        <v>42.338</v>
+        <v>42.336</v>
       </c>
       <c r="CI41" t="n" s="10">
-        <v>48.382</v>
+        <v>48.33</v>
       </c>
       <c r="CJ41" t="n" s="10">
-        <v>49.218</v>
+        <v>49.237</v>
       </c>
       <c r="CK41" t="n" s="10">
-        <v>50.463</v>
+        <v>50.493</v>
       </c>
       <c r="CL41" t="n" s="10">
-        <v>45.766</v>
+        <v>45.793</v>
       </c>
       <c r="CM41" t="n" s="10">
-        <v>41.656</v>
+        <v>41.711</v>
       </c>
       <c r="CN41" t="n" s="10">
-        <v>47.46</v>
+        <v>47.45</v>
       </c>
       <c r="CO41" t="n" s="10">
-        <v>43.007</v>
+        <v>43.011</v>
       </c>
       <c r="CP41" t="n" s="10">
-        <v>47.796</v>
+        <v>47.814</v>
       </c>
       <c r="CQ41" t="n" s="10">
-        <v>50.697</v>
+        <v>50.705</v>
       </c>
       <c r="CR41" t="n" s="10">
-        <v>49.043</v>
+        <v>49.069</v>
       </c>
       <c r="CS41" t="n" s="10">
-        <v>55.113</v>
+        <v>55.123</v>
       </c>
       <c r="CT41" t="n" s="10">
-        <v>58.556</v>
+        <v>58.584</v>
       </c>
       <c r="CU41" t="n" s="10">
-        <v>61.028</v>
+        <v>61.024</v>
       </c>
       <c r="CV41" t="n" s="10">
-        <v>65.034</v>
+        <v>65.066</v>
       </c>
       <c r="CW41" t="n" s="10">
-        <v>68.211</v>
+        <v>68.205</v>
       </c>
       <c r="CX41" t="n" s="10">
-        <v>65.951</v>
+        <v>65.924</v>
       </c>
       <c r="CY41" t="n" s="10">
-        <v>64.762</v>
+        <v>64.839</v>
       </c>
       <c r="CZ41" t="n" s="10">
-        <v>77.784</v>
+        <v>77.679</v>
       </c>
       <c r="DA41" t="n" s="10">
-        <v>63.23</v>
+        <v>63.021</v>
       </c>
       <c r="DB41" t="n" s="10">
-        <v>66.021</v>
+        <v>65.998</v>
       </c>
       <c r="DC41" t="n" s="10">
-        <v>64.677</v>
+        <v>65.222</v>
       </c>
       <c r="DD41" t="n" s="10">
-        <v>57.001</v>
+        <v>56.913</v>
       </c>
       <c r="DE41" t="n" s="10">
-        <v>70.07</v>
+        <v>69.282</v>
       </c>
       <c r="DF41" t="n" s="10">
-        <v>64.573</v>
+        <v>64.291</v>
       </c>
       <c r="DG41" t="n" s="10">
-        <v>71.775</v>
+        <v>73.578</v>
       </c>
       <c r="DH41" t="n" s="10">
-        <v>71.845</v>
+        <v>71.466</v>
       </c>
       <c r="DI41" t="n" s="10">
-        <v>59.632</v>
+        <v>58.767</v>
       </c>
       <c r="DJ41" t="n" s="10">
-        <v>64.038</v>
+        <v>63.382</v>
       </c>
       <c r="DK41" t="n" s="10">
-        <v>66.781</v>
+        <v>68.503</v>
       </c>
       <c r="DL41" t="n" s="10">
-        <v>60.55</v>
+        <v>59.758</v>
       </c>
       <c r="DM41" t="n" s="10">
-        <v>67.228</v>
+        <v>67.612</v>
       </c>
       <c r="DN41" t="n" s="10">
-        <v>61.533</v>
+        <v>61.307</v>
       </c>
       <c r="DO41" t="n" s="10">
-        <v>55.501</v>
+        <v>55.878</v>
       </c>
       <c r="DP41" t="n" s="10">
-        <v>43.243</v>
+        <v>41.735</v>
       </c>
       <c r="DQ41" t="n" s="10">
-        <v>61.235</v>
+        <v>62.363</v>
       </c>
       <c r="DR41" t="n" s="10">
-        <v>66.533</v>
+        <v>67.035</v>
       </c>
       <c r="DS41" t="n" s="10">
-        <v>68.597</v>
+        <v>67.088</v>
       </c>
       <c r="DT41" t="n" s="10">
-        <v>65.322</v>
+        <v>63.355</v>
       </c>
       <c r="DU41" t="n" s="10">
-        <v>61.982</v>
+        <v>60.855</v>
       </c>
       <c r="DV41" t="n" s="10">
-        <v>51.793</v>
+        <v>50.27</v>
+      </c>
+      <c r="DW41" t="n" s="10">
+        <v>43.834</v>
+      </c>
+      <c r="DX41" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY41" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ41" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="11">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="12">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A2:DV2"/>
-    <mergeCell ref="A3:DV3"/>
+    <mergeCell ref="A2:DZ2"/>
+    <mergeCell ref="A3:DZ3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:F4"/>
@@ -16039,14 +16523,15 @@
     <mergeCell ref="DK4:DN4"/>
     <mergeCell ref="DO4:DR4"/>
     <mergeCell ref="DS4:DV4"/>
-    <mergeCell ref="A6:DV6"/>
-    <mergeCell ref="A18:DV18"/>
-    <mergeCell ref="A30:DV30"/>
-    <mergeCell ref="A1:DV1"/>
+    <mergeCell ref="DW4:DZ4"/>
+    <mergeCell ref="A6:DZ6"/>
+    <mergeCell ref="A18:DZ18"/>
+    <mergeCell ref="A30:DZ30"/>
+    <mergeCell ref="A1:DZ1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:16:26&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:53:15&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/National accounts - national disposable income quarters.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/National accounts - national disposable income quarters.xlsx
@@ -190,7 +190,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:53:09</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 06:08:32</t>
   </si>
 </sst>
 </file>
@@ -16531,7 +16531,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:53:15&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 06:08:39&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>